--- a/GradeDistributionsDB/Fall2015/Output/Fall2015 AR.xlsx
+++ b/GradeDistributionsDB/Fall2015/Output/Fall2015 AR.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="667">
   <si>
     <t>Course</t>
   </si>
@@ -979,6 +979,15 @@
     <t>DIXIT M</t>
   </si>
   <si>
+    <t>FERNANDEZ-SOLIS J</t>
+  </si>
+  <si>
+    <t>77.27%</t>
+  </si>
+  <si>
+    <t>22.73%</t>
+  </si>
+  <si>
     <t>COSC-253</t>
   </si>
   <si>
@@ -1228,6 +1237,12 @@
     <t>88.24%</t>
   </si>
   <si>
+    <t>COSC-442</t>
+  </si>
+  <si>
+    <t>45.00%</t>
+  </si>
+  <si>
     <t>COSC-443</t>
   </si>
   <si>
@@ -1367,12 +1382,6 @@
   </si>
   <si>
     <t>COSC-642</t>
-  </si>
-  <si>
-    <t>77.27%</t>
-  </si>
-  <si>
-    <t>22.73%</t>
   </si>
   <si>
     <t>COSC-663</t>
@@ -2342,7 +2351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H561"/>
+  <dimension ref="A1:H565"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5078,251 +5087,251 @@
         <v>12</v>
       </c>
     </row>
-    <row r="230" spans="1:8">
-      <c r="A230" t="s">
+    <row r="229" spans="1:8">
+      <c r="B229" t="s">
         <v>321</v>
       </c>
+      <c r="C229" t="n">
+        <v>3.773</v>
+      </c>
+      <c r="D229" t="s">
+        <v>322</v>
+      </c>
+      <c r="E229" t="s">
+        <v>323</v>
+      </c>
+      <c r="F229" t="s">
+        <v>12</v>
+      </c>
+      <c r="G229" t="s">
+        <v>12</v>
+      </c>
+      <c r="H229" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="231" spans="1:8">
-      <c r="B231" t="s">
-        <v>316</v>
-      </c>
-      <c r="C231" t="n">
-        <v>2.903</v>
-      </c>
-      <c r="D231" t="s">
-        <v>322</v>
-      </c>
-      <c r="E231" t="s">
-        <v>323</v>
-      </c>
-      <c r="F231" t="s">
-        <v>110</v>
-      </c>
-      <c r="G231" t="s">
+      <c r="A231" t="s">
         <v>324</v>
-      </c>
-      <c r="H231" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="232" spans="1:8">
       <c r="B232" t="s">
+        <v>316</v>
+      </c>
+      <c r="C232" t="n">
+        <v>2.903</v>
+      </c>
+      <c r="D232" t="s">
+        <v>325</v>
+      </c>
+      <c r="E232" t="s">
         <v>326</v>
       </c>
-      <c r="C232" t="n">
-        <v>2.196</v>
-      </c>
-      <c r="D232" t="s">
-        <v>129</v>
-      </c>
-      <c r="E232" t="s">
-        <v>327</v>
-      </c>
       <c r="F232" t="s">
-        <v>328</v>
+        <v>110</v>
       </c>
       <c r="G232" t="s">
         <v>327</v>
       </c>
       <c r="H232" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
+      <c r="B233" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="234" spans="1:8">
-      <c r="A234" t="s">
+      <c r="C233" t="n">
+        <v>2.196</v>
+      </c>
+      <c r="D233" t="s">
+        <v>129</v>
+      </c>
+      <c r="E233" t="s">
         <v>330</v>
       </c>
+      <c r="F233" t="s">
+        <v>331</v>
+      </c>
+      <c r="G233" t="s">
+        <v>330</v>
+      </c>
+      <c r="H233" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="235" spans="1:8">
-      <c r="B235" t="s">
-        <v>326</v>
-      </c>
-      <c r="C235" t="n">
+      <c r="A235" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
+      <c r="B236" t="s">
+        <v>329</v>
+      </c>
+      <c r="C236" t="n">
         <v>2.556</v>
       </c>
-      <c r="D235" t="s">
-        <v>331</v>
-      </c>
-      <c r="E235" t="s">
-        <v>332</v>
-      </c>
-      <c r="F235" t="s">
-        <v>333</v>
-      </c>
-      <c r="G235" t="s">
+      <c r="D236" t="s">
         <v>334</v>
       </c>
-      <c r="H235" t="s">
+      <c r="E236" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="237" spans="1:8">
-      <c r="A237" t="s">
+      <c r="F236" t="s">
         <v>336</v>
       </c>
+      <c r="G236" t="s">
+        <v>337</v>
+      </c>
+      <c r="H236" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="238" spans="1:8">
-      <c r="B238" t="s">
-        <v>337</v>
-      </c>
-      <c r="C238" t="n">
+      <c r="A238" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
+      <c r="B239" t="s">
+        <v>340</v>
+      </c>
+      <c r="C239" t="n">
         <v>2.7135</v>
       </c>
-      <c r="D238" t="s">
-        <v>338</v>
-      </c>
-      <c r="E238" t="s">
+      <c r="D239" t="s">
+        <v>341</v>
+      </c>
+      <c r="E239" t="s">
         <v>318</v>
       </c>
-      <c r="F238" t="s">
-        <v>339</v>
-      </c>
-      <c r="G238" t="s">
-        <v>340</v>
-      </c>
-      <c r="H238" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8">
-      <c r="A240" t="s">
+      <c r="F239" t="s">
         <v>342</v>
       </c>
+      <c r="G239" t="s">
+        <v>343</v>
+      </c>
+      <c r="H239" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="241" spans="1:8">
-      <c r="B241" t="s">
-        <v>343</v>
-      </c>
-      <c r="C241" t="n">
+      <c r="A241" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
+      <c r="B242" t="s">
+        <v>346</v>
+      </c>
+      <c r="C242" t="n">
         <v>2.9</v>
       </c>
-      <c r="D241" t="s">
-        <v>344</v>
-      </c>
-      <c r="E241" t="s">
-        <v>345</v>
-      </c>
-      <c r="F241" t="s">
-        <v>346</v>
-      </c>
-      <c r="G241" t="s">
+      <c r="D242" t="s">
         <v>347</v>
       </c>
-      <c r="H241" t="s">
+      <c r="E242" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="243" spans="1:8">
-      <c r="A243" t="s">
+      <c r="F242" t="s">
         <v>349</v>
       </c>
+      <c r="G242" t="s">
+        <v>350</v>
+      </c>
+      <c r="H242" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="244" spans="1:8">
-      <c r="B244" t="s">
-        <v>350</v>
-      </c>
-      <c r="C244" t="n">
+      <c r="A244" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8">
+      <c r="B245" t="s">
+        <v>353</v>
+      </c>
+      <c r="C245" t="n">
         <v>2.7425</v>
       </c>
-      <c r="D244" t="s">
-        <v>351</v>
-      </c>
-      <c r="E244" t="s">
-        <v>352</v>
-      </c>
-      <c r="F244" t="s">
-        <v>353</v>
-      </c>
-      <c r="G244" t="s">
+      <c r="D245" t="s">
         <v>354</v>
       </c>
-      <c r="H244" t="s">
+      <c r="E245" t="s">
+        <v>355</v>
+      </c>
+      <c r="F245" t="s">
+        <v>356</v>
+      </c>
+      <c r="G245" t="s">
+        <v>357</v>
+      </c>
+      <c r="H245" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="246" spans="1:8">
-      <c r="A246" t="s">
-        <v>355</v>
-      </c>
-    </row>
     <row r="247" spans="1:8">
-      <c r="B247" t="s">
+      <c r="A247" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8">
+      <c r="B248" t="s">
         <v>313</v>
       </c>
-      <c r="C247" t="n">
+      <c r="C248" t="n">
         <v>3.1855</v>
       </c>
-      <c r="D247" t="s">
-        <v>356</v>
-      </c>
-      <c r="E247" t="s">
-        <v>357</v>
-      </c>
-      <c r="F247" t="s">
-        <v>358</v>
-      </c>
-      <c r="G247" t="s">
+      <c r="D248" t="s">
         <v>359</v>
       </c>
-      <c r="H247" t="s">
+      <c r="E248" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="249" spans="1:8">
-      <c r="A249" t="s">
+      <c r="F248" t="s">
         <v>361</v>
       </c>
+      <c r="G248" t="s">
+        <v>362</v>
+      </c>
+      <c r="H248" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="250" spans="1:8">
-      <c r="B250" t="s">
-        <v>362</v>
-      </c>
-      <c r="C250" t="n">
+      <c r="A250" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8">
+      <c r="B251" t="s">
+        <v>365</v>
+      </c>
+      <c r="C251" t="n">
         <v>2.687</v>
       </c>
-      <c r="D250" t="s">
-        <v>363</v>
-      </c>
-      <c r="E250" t="s">
-        <v>364</v>
-      </c>
-      <c r="F250" t="s">
-        <v>365</v>
-      </c>
-      <c r="G250" t="s">
+      <c r="D251" t="s">
         <v>366</v>
       </c>
-      <c r="H250" t="s">
+      <c r="E251" t="s">
+        <v>367</v>
+      </c>
+      <c r="F251" t="s">
+        <v>368</v>
+      </c>
+      <c r="G251" t="s">
+        <v>369</v>
+      </c>
+      <c r="H251" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="252" spans="1:8">
-      <c r="A252" t="s">
-        <v>367</v>
-      </c>
-    </row>
     <row r="253" spans="1:8">
-      <c r="B253" t="s">
-        <v>368</v>
-      </c>
-      <c r="C253" t="n">
-        <v>3.0927</v>
-      </c>
-      <c r="D253" t="s">
-        <v>369</v>
-      </c>
-      <c r="E253" t="s">
+      <c r="A253" t="s">
         <v>370</v>
-      </c>
-      <c r="F253" t="s">
-        <v>265</v>
-      </c>
-      <c r="G253" t="s">
-        <v>12</v>
-      </c>
-      <c r="H253" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -5330,7 +5339,7 @@
         <v>371</v>
       </c>
       <c r="C254" t="n">
-        <v>2.764</v>
+        <v>3.0927</v>
       </c>
       <c r="D254" t="s">
         <v>372</v>
@@ -5339,41 +5348,41 @@
         <v>373</v>
       </c>
       <c r="F254" t="s">
+        <v>265</v>
+      </c>
+      <c r="G254" t="s">
+        <v>12</v>
+      </c>
+      <c r="H254" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8">
+      <c r="B255" t="s">
         <v>374</v>
       </c>
-      <c r="G254" t="s">
-        <v>12</v>
-      </c>
-      <c r="H254" t="s">
+      <c r="C255" t="n">
+        <v>2.764</v>
+      </c>
+      <c r="D255" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="256" spans="1:8">
-      <c r="A256" t="s">
+      <c r="E255" t="s">
         <v>376</v>
       </c>
+      <c r="F255" t="s">
+        <v>377</v>
+      </c>
+      <c r="G255" t="s">
+        <v>12</v>
+      </c>
+      <c r="H255" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="257" spans="1:8">
-      <c r="B257" t="s">
-        <v>377</v>
-      </c>
-      <c r="C257" t="n">
-        <v>3.9027</v>
-      </c>
-      <c r="D257" t="s">
-        <v>378</v>
-      </c>
-      <c r="E257" t="s">
+      <c r="A257" t="s">
         <v>379</v>
-      </c>
-      <c r="F257" t="s">
-        <v>12</v>
-      </c>
-      <c r="G257" t="s">
-        <v>12</v>
-      </c>
-      <c r="H257" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -5381,291 +5390,291 @@
         <v>380</v>
       </c>
       <c r="C258" t="n">
+        <v>3.9027</v>
+      </c>
+      <c r="D258" t="s">
+        <v>381</v>
+      </c>
+      <c r="E258" t="s">
+        <v>382</v>
+      </c>
+      <c r="F258" t="s">
+        <v>12</v>
+      </c>
+      <c r="G258" t="s">
+        <v>12</v>
+      </c>
+      <c r="H258" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8">
+      <c r="B259" t="s">
+        <v>383</v>
+      </c>
+      <c r="C259" t="n">
         <v>3.333</v>
       </c>
-      <c r="D258" t="s">
+      <c r="D259" t="s">
         <v>133</v>
       </c>
-      <c r="E258" t="s">
+      <c r="E259" t="s">
         <v>133</v>
       </c>
-      <c r="F258" t="s">
+      <c r="F259" t="s">
         <v>111</v>
       </c>
-      <c r="G258" t="s">
-        <v>12</v>
-      </c>
-      <c r="H258" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8">
-      <c r="A260" t="s">
-        <v>381</v>
+      <c r="G259" t="s">
+        <v>12</v>
+      </c>
+      <c r="H259" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="261" spans="1:8">
-      <c r="B261" t="s">
-        <v>382</v>
-      </c>
-      <c r="C261" t="n">
+      <c r="A261" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8">
+      <c r="B262" t="s">
+        <v>385</v>
+      </c>
+      <c r="C262" t="n">
         <v>3.0458</v>
       </c>
-      <c r="D261" t="s">
-        <v>383</v>
-      </c>
-      <c r="E261" t="s">
-        <v>384</v>
-      </c>
-      <c r="F261" t="s">
-        <v>385</v>
-      </c>
-      <c r="G261" t="s">
+      <c r="D262" t="s">
         <v>386</v>
       </c>
-      <c r="H261" t="s">
+      <c r="E262" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="263" spans="1:8">
-      <c r="A263" t="s">
+      <c r="F262" t="s">
         <v>388</v>
       </c>
+      <c r="G262" t="s">
+        <v>389</v>
+      </c>
+      <c r="H262" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="264" spans="1:8">
-      <c r="B264" t="s">
-        <v>389</v>
-      </c>
-      <c r="C264" t="n">
+      <c r="A264" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8">
+      <c r="B265" t="s">
+        <v>392</v>
+      </c>
+      <c r="C265" t="n">
         <v>2.861</v>
       </c>
-      <c r="D264" t="s">
-        <v>390</v>
-      </c>
-      <c r="E264" t="s">
-        <v>391</v>
-      </c>
-      <c r="F264" t="s">
-        <v>392</v>
-      </c>
-      <c r="G264" t="s">
+      <c r="D265" t="s">
         <v>393</v>
       </c>
-      <c r="H264" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8">
-      <c r="A266" t="s">
+      <c r="E265" t="s">
         <v>394</v>
       </c>
+      <c r="F265" t="s">
+        <v>395</v>
+      </c>
+      <c r="G265" t="s">
+        <v>396</v>
+      </c>
+      <c r="H265" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="267" spans="1:8">
-      <c r="B267" t="s">
-        <v>395</v>
-      </c>
-      <c r="C267" t="n">
+      <c r="A267" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8">
+      <c r="B268" t="s">
+        <v>398</v>
+      </c>
+      <c r="C268" t="n">
         <v>3.094</v>
       </c>
-      <c r="D267" t="s">
-        <v>396</v>
-      </c>
-      <c r="E267" t="s">
-        <v>396</v>
-      </c>
-      <c r="F267" t="s">
-        <v>397</v>
-      </c>
-      <c r="G267" t="s">
-        <v>398</v>
-      </c>
-      <c r="H267" t="s">
+      <c r="D268" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="269" spans="1:8">
-      <c r="A269" t="s">
+      <c r="E268" t="s">
+        <v>399</v>
+      </c>
+      <c r="F268" t="s">
         <v>400</v>
       </c>
+      <c r="G268" t="s">
+        <v>401</v>
+      </c>
+      <c r="H268" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="270" spans="1:8">
-      <c r="B270" t="s">
-        <v>401</v>
-      </c>
-      <c r="C270" t="n">
+      <c r="A270" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8">
+      <c r="B271" t="s">
+        <v>404</v>
+      </c>
+      <c r="C271" t="n">
         <v>3.118</v>
       </c>
-      <c r="D270" t="s">
-        <v>402</v>
-      </c>
-      <c r="E270" t="s">
-        <v>403</v>
-      </c>
-      <c r="F270" t="s">
-        <v>12</v>
-      </c>
-      <c r="G270" t="s">
-        <v>12</v>
-      </c>
-      <c r="H270" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8">
-      <c r="A272" t="s">
-        <v>404</v>
+      <c r="D271" t="s">
+        <v>405</v>
+      </c>
+      <c r="E271" t="s">
+        <v>406</v>
+      </c>
+      <c r="F271" t="s">
+        <v>12</v>
+      </c>
+      <c r="G271" t="s">
+        <v>12</v>
+      </c>
+      <c r="H271" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="273" spans="1:8">
-      <c r="B273" t="s">
-        <v>405</v>
-      </c>
-      <c r="C273" t="n">
+      <c r="A273" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8">
+      <c r="B274" t="s">
+        <v>321</v>
+      </c>
+      <c r="C274" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="D274" t="s">
+        <v>76</v>
+      </c>
+      <c r="E274" t="s">
+        <v>408</v>
+      </c>
+      <c r="F274" t="s">
+        <v>260</v>
+      </c>
+      <c r="G274" t="s">
+        <v>12</v>
+      </c>
+      <c r="H274" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8">
+      <c r="A276" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8">
+      <c r="B277" t="s">
+        <v>410</v>
+      </c>
+      <c r="C277" t="n">
         <v>3.556</v>
       </c>
-      <c r="D273" t="s">
+      <c r="D277" t="s">
         <v>134</v>
       </c>
-      <c r="E273" t="s">
+      <c r="E277" t="s">
         <v>133</v>
       </c>
-      <c r="F273" t="s">
-        <v>12</v>
-      </c>
-      <c r="G273" t="s">
-        <v>12</v>
-      </c>
-      <c r="H273" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8">
-      <c r="A275" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8">
-      <c r="B276" t="s">
-        <v>362</v>
-      </c>
-      <c r="C276" t="n">
+      <c r="F277" t="s">
+        <v>12</v>
+      </c>
+      <c r="G277" t="s">
+        <v>12</v>
+      </c>
+      <c r="H277" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8">
+      <c r="A279" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8">
+      <c r="B280" t="s">
+        <v>365</v>
+      </c>
+      <c r="C280" t="n">
         <v>4</v>
       </c>
-      <c r="D276" t="s">
+      <c r="D280" t="s">
         <v>115</v>
       </c>
-      <c r="E276" t="s">
-        <v>12</v>
-      </c>
-      <c r="F276" t="s">
-        <v>12</v>
-      </c>
-      <c r="G276" t="s">
-        <v>12</v>
-      </c>
-      <c r="H276" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8">
-      <c r="A278" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8">
-      <c r="B279" t="s">
-        <v>395</v>
-      </c>
-      <c r="C279" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="D279" t="s">
-        <v>408</v>
-      </c>
-      <c r="E279" t="s">
-        <v>409</v>
-      </c>
-      <c r="F279" t="s">
-        <v>409</v>
-      </c>
-      <c r="G279" t="s">
-        <v>12</v>
-      </c>
-      <c r="H279" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8">
-      <c r="A281" t="s">
-        <v>410</v>
+      <c r="E280" t="s">
+        <v>12</v>
+      </c>
+      <c r="F280" t="s">
+        <v>12</v>
+      </c>
+      <c r="G280" t="s">
+        <v>12</v>
+      </c>
+      <c r="H280" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="282" spans="1:8">
-      <c r="B282" t="s">
-        <v>405</v>
-      </c>
-      <c r="C282" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="D282" t="s">
-        <v>136</v>
-      </c>
-      <c r="E282" t="s">
-        <v>41</v>
-      </c>
-      <c r="F282" t="s">
-        <v>260</v>
-      </c>
-      <c r="G282" t="s">
-        <v>12</v>
-      </c>
-      <c r="H282" t="s">
-        <v>12</v>
+      <c r="A282" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="283" spans="1:8">
       <c r="B283" t="s">
-        <v>320</v>
+        <v>398</v>
       </c>
       <c r="C283" t="n">
-        <v>3.895</v>
+        <v>3.48</v>
       </c>
       <c r="D283" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="E283" t="s">
-        <v>72</v>
+        <v>414</v>
       </c>
       <c r="F283" t="s">
-        <v>12</v>
+        <v>414</v>
       </c>
       <c r="G283" t="s">
         <v>12</v>
       </c>
       <c r="H283" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="285" spans="1:8">
       <c r="A285" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="286" spans="1:8">
       <c r="B286" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C286" t="n">
-        <v>2.9617</v>
+        <v>3.65</v>
       </c>
       <c r="D286" t="s">
-        <v>414</v>
+        <v>136</v>
       </c>
       <c r="E286" t="s">
-        <v>294</v>
+        <v>41</v>
       </c>
       <c r="F286" t="s">
-        <v>415</v>
+        <v>260</v>
       </c>
       <c r="G286" t="s">
         <v>12</v>
@@ -5676,16 +5685,16 @@
     </row>
     <row r="287" spans="1:8">
       <c r="B287" t="s">
+        <v>320</v>
+      </c>
+      <c r="C287" t="n">
+        <v>3.895</v>
+      </c>
+      <c r="D287" t="s">
         <v>416</v>
       </c>
-      <c r="C287" t="n">
-        <v>3.6755</v>
-      </c>
-      <c r="D287" t="s">
-        <v>417</v>
-      </c>
       <c r="E287" t="s">
-        <v>418</v>
+        <v>72</v>
       </c>
       <c r="F287" t="s">
         <v>12</v>
@@ -5699,355 +5708,355 @@
     </row>
     <row r="289" spans="1:8">
       <c r="A289" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="290" spans="1:8">
       <c r="B290" t="s">
-        <v>377</v>
+        <v>418</v>
       </c>
       <c r="C290" t="n">
+        <v>2.9617</v>
+      </c>
+      <c r="D290" t="s">
+        <v>419</v>
+      </c>
+      <c r="E290" t="s">
+        <v>294</v>
+      </c>
+      <c r="F290" t="s">
+        <v>420</v>
+      </c>
+      <c r="G290" t="s">
+        <v>12</v>
+      </c>
+      <c r="H290" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8">
+      <c r="B291" t="s">
+        <v>421</v>
+      </c>
+      <c r="C291" t="n">
+        <v>3.6755</v>
+      </c>
+      <c r="D291" t="s">
+        <v>422</v>
+      </c>
+      <c r="E291" t="s">
+        <v>423</v>
+      </c>
+      <c r="F291" t="s">
+        <v>12</v>
+      </c>
+      <c r="G291" t="s">
+        <v>12</v>
+      </c>
+      <c r="H291" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8">
+      <c r="A293" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8">
+      <c r="B294" t="s">
+        <v>380</v>
+      </c>
+      <c r="C294" t="n">
         <v>3.583</v>
       </c>
-      <c r="D290" t="s">
+      <c r="D294" t="s">
         <v>141</v>
       </c>
-      <c r="E290" t="s">
+      <c r="E294" t="s">
         <v>288</v>
       </c>
-      <c r="F290" t="s">
-        <v>12</v>
-      </c>
-      <c r="G290" t="s">
-        <v>12</v>
-      </c>
-      <c r="H290" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8">
-      <c r="A292" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="293" spans="1:8">
-      <c r="B293" t="s">
-        <v>421</v>
-      </c>
-      <c r="C293" t="n">
+      <c r="F294" t="s">
+        <v>12</v>
+      </c>
+      <c r="G294" t="s">
+        <v>12</v>
+      </c>
+      <c r="H294" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8">
+      <c r="A296" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8">
+      <c r="B297" t="s">
+        <v>426</v>
+      </c>
+      <c r="C297" t="n">
         <v>3.148</v>
       </c>
-      <c r="D293" t="s">
-        <v>422</v>
-      </c>
-      <c r="E293" t="s">
-        <v>423</v>
-      </c>
-      <c r="F293" t="s">
-        <v>424</v>
-      </c>
-      <c r="G293" t="s">
-        <v>12</v>
-      </c>
-      <c r="H293" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8">
-      <c r="A295" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="296" spans="1:8">
-      <c r="B296" t="s">
+      <c r="D297" t="s">
+        <v>427</v>
+      </c>
+      <c r="E297" t="s">
+        <v>428</v>
+      </c>
+      <c r="F297" t="s">
+        <v>429</v>
+      </c>
+      <c r="G297" t="s">
+        <v>12</v>
+      </c>
+      <c r="H297" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8">
+      <c r="A299" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8">
+      <c r="B300" t="s">
+        <v>431</v>
+      </c>
+      <c r="C300" t="n">
+        <v>2.8758</v>
+      </c>
+      <c r="D300" t="s">
+        <v>432</v>
+      </c>
+      <c r="E300" t="s">
+        <v>53</v>
+      </c>
+      <c r="F300" t="s">
+        <v>433</v>
+      </c>
+      <c r="G300" t="s">
+        <v>434</v>
+      </c>
+      <c r="H300" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8">
+      <c r="A302" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8">
+      <c r="B303" t="s">
+        <v>437</v>
+      </c>
+      <c r="C303" t="n">
+        <v>3.1495</v>
+      </c>
+      <c r="D303" t="s">
+        <v>438</v>
+      </c>
+      <c r="E303" t="s">
+        <v>439</v>
+      </c>
+      <c r="F303" t="s">
+        <v>440</v>
+      </c>
+      <c r="G303" t="s">
+        <v>12</v>
+      </c>
+      <c r="H303" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8">
+      <c r="A305" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8">
+      <c r="B306" t="s">
+        <v>392</v>
+      </c>
+      <c r="C306" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="D306" t="s">
+        <v>443</v>
+      </c>
+      <c r="E306" t="s">
+        <v>444</v>
+      </c>
+      <c r="F306" t="s">
+        <v>445</v>
+      </c>
+      <c r="G306" t="s">
+        <v>12</v>
+      </c>
+      <c r="H306" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8">
+      <c r="A308" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8">
+      <c r="B309" t="s">
+        <v>447</v>
+      </c>
+      <c r="C309" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="D309" t="s">
+        <v>413</v>
+      </c>
+      <c r="E309" t="s">
+        <v>448</v>
+      </c>
+      <c r="F309" t="s">
+        <v>12</v>
+      </c>
+      <c r="G309" t="s">
+        <v>12</v>
+      </c>
+      <c r="H309" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8">
+      <c r="A311" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8">
+      <c r="B312" t="s">
+        <v>404</v>
+      </c>
+      <c r="C312" t="n">
+        <v>4</v>
+      </c>
+      <c r="D312" t="s">
+        <v>115</v>
+      </c>
+      <c r="E312" t="s">
+        <v>12</v>
+      </c>
+      <c r="F312" t="s">
+        <v>12</v>
+      </c>
+      <c r="G312" t="s">
+        <v>12</v>
+      </c>
+      <c r="H312" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8">
+      <c r="A314" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8">
+      <c r="B315" t="s">
+        <v>451</v>
+      </c>
+      <c r="C315" t="n">
+        <v>3.333</v>
+      </c>
+      <c r="D315" t="s">
+        <v>20</v>
+      </c>
+      <c r="E315" t="s">
+        <v>109</v>
+      </c>
+      <c r="F315" t="s">
+        <v>12</v>
+      </c>
+      <c r="G315" t="s">
+        <v>12</v>
+      </c>
+      <c r="H315" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8">
+      <c r="A317" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8">
+      <c r="B318" t="s">
         <v>426</v>
       </c>
-      <c r="C296" t="n">
-        <v>2.8758</v>
-      </c>
-      <c r="D296" t="s">
-        <v>427</v>
-      </c>
-      <c r="E296" t="s">
-        <v>53</v>
-      </c>
-      <c r="F296" t="s">
-        <v>428</v>
-      </c>
-      <c r="G296" t="s">
-        <v>429</v>
-      </c>
-      <c r="H296" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="298" spans="1:8">
-      <c r="A298" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="299" spans="1:8">
-      <c r="B299" t="s">
-        <v>432</v>
-      </c>
-      <c r="C299" t="n">
-        <v>3.1495</v>
-      </c>
-      <c r="D299" t="s">
-        <v>433</v>
-      </c>
-      <c r="E299" t="s">
-        <v>434</v>
-      </c>
-      <c r="F299" t="s">
-        <v>435</v>
-      </c>
-      <c r="G299" t="s">
-        <v>12</v>
-      </c>
-      <c r="H299" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="301" spans="1:8">
-      <c r="A301" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="302" spans="1:8">
-      <c r="B302" t="s">
-        <v>389</v>
-      </c>
-      <c r="C302" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="D302" t="s">
-        <v>438</v>
-      </c>
-      <c r="E302" t="s">
-        <v>439</v>
-      </c>
-      <c r="F302" t="s">
-        <v>440</v>
-      </c>
-      <c r="G302" t="s">
-        <v>12</v>
-      </c>
-      <c r="H302" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="304" spans="1:8">
-      <c r="A304" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="305" spans="1:8">
-      <c r="B305" t="s">
-        <v>442</v>
-      </c>
-      <c r="C305" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="D305" t="s">
-        <v>408</v>
-      </c>
-      <c r="E305" t="s">
-        <v>443</v>
-      </c>
-      <c r="F305" t="s">
-        <v>12</v>
-      </c>
-      <c r="G305" t="s">
-        <v>12</v>
-      </c>
-      <c r="H305" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8">
-      <c r="A307" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8">
-      <c r="B308" t="s">
-        <v>401</v>
-      </c>
-      <c r="C308" t="n">
-        <v>4</v>
-      </c>
-      <c r="D308" t="s">
-        <v>115</v>
-      </c>
-      <c r="E308" t="s">
-        <v>12</v>
-      </c>
-      <c r="F308" t="s">
-        <v>12</v>
-      </c>
-      <c r="G308" t="s">
-        <v>12</v>
-      </c>
-      <c r="H308" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8">
-      <c r="A310" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="311" spans="1:8">
-      <c r="B311" t="s">
-        <v>446</v>
-      </c>
-      <c r="C311" t="n">
-        <v>3.333</v>
-      </c>
-      <c r="D311" t="s">
-        <v>20</v>
-      </c>
-      <c r="E311" t="s">
-        <v>109</v>
-      </c>
-      <c r="F311" t="s">
-        <v>12</v>
-      </c>
-      <c r="G311" t="s">
-        <v>12</v>
-      </c>
-      <c r="H311" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8">
-      <c r="A313" t="s">
+      <c r="C318" t="n">
+        <v>3.818</v>
+      </c>
+      <c r="D318" t="s">
+        <v>453</v>
+      </c>
+      <c r="E318" t="s">
+        <v>454</v>
+      </c>
+      <c r="F318" t="s">
+        <v>12</v>
+      </c>
+      <c r="G318" t="s">
+        <v>12</v>
+      </c>
+      <c r="H318" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8">
+      <c r="A320" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8">
+      <c r="B321" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="314" spans="1:8">
-      <c r="B314" t="s">
-        <v>421</v>
-      </c>
-      <c r="C314" t="n">
-        <v>3.818</v>
-      </c>
-      <c r="D314" t="s">
-        <v>448</v>
-      </c>
-      <c r="E314" t="s">
-        <v>449</v>
-      </c>
-      <c r="F314" t="s">
-        <v>12</v>
-      </c>
-      <c r="G314" t="s">
-        <v>12</v>
-      </c>
-      <c r="H314" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="316" spans="1:8">
-      <c r="A316" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="317" spans="1:8">
-      <c r="B317" t="s">
-        <v>442</v>
-      </c>
-      <c r="C317" t="n">
+      <c r="C321" t="n">
         <v>3.773</v>
       </c>
-      <c r="D317" t="s">
-        <v>451</v>
-      </c>
-      <c r="E317" t="s">
-        <v>452</v>
-      </c>
-      <c r="F317" t="s">
-        <v>12</v>
-      </c>
-      <c r="G317" t="s">
-        <v>12</v>
-      </c>
-      <c r="H317" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="319" spans="1:8">
-      <c r="A319" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="320" spans="1:8">
-      <c r="B320" t="s">
-        <v>314</v>
-      </c>
-      <c r="C320" t="n">
-        <v>3.765</v>
-      </c>
-      <c r="D320" t="s">
-        <v>454</v>
-      </c>
-      <c r="E320" t="s">
-        <v>197</v>
-      </c>
-      <c r="F320" t="s">
-        <v>12</v>
-      </c>
-      <c r="G320" t="s">
-        <v>12</v>
-      </c>
-      <c r="H320" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="322" spans="1:8">
-      <c r="A322" t="s">
-        <v>455</v>
+      <c r="D321" t="s">
+        <v>322</v>
+      </c>
+      <c r="E321" t="s">
+        <v>323</v>
+      </c>
+      <c r="F321" t="s">
+        <v>12</v>
+      </c>
+      <c r="G321" t="s">
+        <v>12</v>
+      </c>
+      <c r="H321" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="323" spans="1:8">
-      <c r="B323" t="s">
+      <c r="A323" t="s">
         <v>456</v>
-      </c>
-      <c r="C323" t="n">
-        <v>3.255</v>
-      </c>
-      <c r="D323" t="s">
-        <v>457</v>
-      </c>
-      <c r="E323" t="s">
-        <v>458</v>
-      </c>
-      <c r="F323" t="s">
-        <v>459</v>
-      </c>
-      <c r="G323" t="s">
-        <v>460</v>
-      </c>
-      <c r="H323" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="324" spans="1:8">
       <c r="B324" t="s">
-        <v>121</v>
+        <v>314</v>
       </c>
       <c r="C324" t="n">
-        <v>3.9543</v>
+        <v>3.765</v>
       </c>
       <c r="D324" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="E324" t="s">
-        <v>463</v>
+        <v>197</v>
       </c>
       <c r="F324" t="s">
-        <v>464</v>
+        <v>12</v>
       </c>
       <c r="G324" t="s">
         <v>12</v>
@@ -6058,121 +6067,121 @@
     </row>
     <row r="326" spans="1:8">
       <c r="A326" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
     </row>
     <row r="327" spans="1:8">
       <c r="B327" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="C327" t="n">
-        <v>3.611</v>
+        <v>3.255</v>
       </c>
       <c r="D327" t="s">
-        <v>109</v>
+        <v>460</v>
       </c>
       <c r="E327" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="F327" t="s">
-        <v>265</v>
+        <v>462</v>
       </c>
       <c r="G327" t="s">
-        <v>12</v>
+        <v>463</v>
       </c>
       <c r="H327" t="s">
-        <v>12</v>
+        <v>464</v>
       </c>
     </row>
     <row r="328" spans="1:8">
       <c r="B328" t="s">
+        <v>121</v>
+      </c>
+      <c r="C328" t="n">
+        <v>3.9543</v>
+      </c>
+      <c r="D328" t="s">
+        <v>465</v>
+      </c>
+      <c r="E328" t="s">
+        <v>466</v>
+      </c>
+      <c r="F328" t="s">
+        <v>467</v>
+      </c>
+      <c r="G328" t="s">
+        <v>12</v>
+      </c>
+      <c r="H328" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8">
+      <c r="A330" t="s">
         <v>468</v>
       </c>
-      <c r="C328" t="n">
+    </row>
+    <row r="331" spans="1:8">
+      <c r="B331" t="s">
+        <v>469</v>
+      </c>
+      <c r="C331" t="n">
+        <v>3.611</v>
+      </c>
+      <c r="D331" t="s">
+        <v>109</v>
+      </c>
+      <c r="E331" t="s">
+        <v>470</v>
+      </c>
+      <c r="F331" t="s">
+        <v>265</v>
+      </c>
+      <c r="G331" t="s">
+        <v>12</v>
+      </c>
+      <c r="H331" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8">
+      <c r="B332" t="s">
+        <v>471</v>
+      </c>
+      <c r="C332" t="n">
         <v>3.278</v>
       </c>
-      <c r="D328" t="s">
+      <c r="D332" t="s">
         <v>76</v>
       </c>
-      <c r="E328" t="s">
-        <v>467</v>
-      </c>
-      <c r="F328" t="s">
+      <c r="E332" t="s">
+        <v>470</v>
+      </c>
+      <c r="F332" t="s">
         <v>110</v>
       </c>
-      <c r="G328" t="s">
-        <v>12</v>
-      </c>
-      <c r="H328" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="329" spans="1:8">
-      <c r="B329" t="s">
-        <v>469</v>
-      </c>
-      <c r="C329" t="n">
-        <v>2.9705</v>
-      </c>
-      <c r="D329" t="s">
-        <v>470</v>
-      </c>
-      <c r="E329" t="s">
-        <v>118</v>
-      </c>
-      <c r="F329" t="s">
-        <v>471</v>
-      </c>
-      <c r="G329" t="s">
-        <v>12</v>
-      </c>
-      <c r="H329" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="330" spans="1:8">
-      <c r="B330" t="s">
-        <v>472</v>
-      </c>
-      <c r="C330" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="D330" t="s">
-        <v>473</v>
-      </c>
-      <c r="E330" t="s">
-        <v>474</v>
-      </c>
-      <c r="F330" t="s">
-        <v>197</v>
-      </c>
-      <c r="G330" t="s">
-        <v>12</v>
-      </c>
-      <c r="H330" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="332" spans="1:8">
-      <c r="A332" t="s">
-        <v>475</v>
+      <c r="G332" t="s">
+        <v>12</v>
+      </c>
+      <c r="H332" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="333" spans="1:8">
       <c r="B333" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="C333" t="n">
-        <v>3.5</v>
+        <v>2.9705</v>
       </c>
       <c r="D333" t="s">
-        <v>76</v>
+        <v>473</v>
       </c>
       <c r="E333" t="s">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="F333" t="s">
-        <v>12</v>
+        <v>474</v>
       </c>
       <c r="G333" t="s">
         <v>12</v>
@@ -6183,20 +6192,20 @@
     </row>
     <row r="334" spans="1:8">
       <c r="B334" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="C334" t="n">
-        <v>3.235</v>
+        <v>3.176</v>
       </c>
       <c r="D334" t="s">
+        <v>476</v>
+      </c>
+      <c r="E334" t="s">
+        <v>477</v>
+      </c>
+      <c r="F334" t="s">
         <v>197</v>
       </c>
-      <c r="E334" t="s">
-        <v>454</v>
-      </c>
-      <c r="F334" t="s">
-        <v>12</v>
-      </c>
       <c r="G334" t="s">
         <v>12</v>
       </c>
@@ -6204,180 +6213,180 @@
         <v>12</v>
       </c>
     </row>
-    <row r="335" spans="1:8">
-      <c r="B335" t="s">
-        <v>476</v>
-      </c>
-      <c r="C335" t="n">
-        <v>4</v>
-      </c>
-      <c r="D335" t="s">
-        <v>115</v>
-      </c>
-      <c r="E335" t="s">
-        <v>12</v>
-      </c>
-      <c r="F335" t="s">
-        <v>12</v>
-      </c>
-      <c r="G335" t="s">
-        <v>12</v>
-      </c>
-      <c r="H335" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="336" spans="1:8">
-      <c r="B336" t="s">
-        <v>472</v>
-      </c>
-      <c r="C336" t="n">
-        <v>3.471</v>
-      </c>
-      <c r="D336" t="s">
-        <v>89</v>
-      </c>
-      <c r="E336" t="s">
-        <v>473</v>
-      </c>
-      <c r="F336" t="s">
-        <v>477</v>
-      </c>
-      <c r="G336" t="s">
-        <v>12</v>
-      </c>
-      <c r="H336" t="s">
-        <v>12</v>
+      <c r="A336" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="337" spans="1:8">
       <c r="B337" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="C337" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D337" t="s">
+        <v>76</v>
+      </c>
+      <c r="E337" t="s">
+        <v>76</v>
+      </c>
+      <c r="F337" t="s">
+        <v>12</v>
+      </c>
+      <c r="G337" t="s">
+        <v>12</v>
+      </c>
+      <c r="H337" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8">
+      <c r="B338" t="s">
+        <v>472</v>
+      </c>
+      <c r="C338" t="n">
         <v>3.235</v>
       </c>
-      <c r="D337" t="s">
-        <v>473</v>
-      </c>
-      <c r="E337" t="s">
-        <v>473</v>
-      </c>
-      <c r="F337" t="s">
-        <v>129</v>
-      </c>
-      <c r="G337" t="s">
-        <v>12</v>
-      </c>
-      <c r="H337" t="s">
+      <c r="D338" t="s">
+        <v>197</v>
+      </c>
+      <c r="E338" t="s">
+        <v>457</v>
+      </c>
+      <c r="F338" t="s">
+        <v>12</v>
+      </c>
+      <c r="G338" t="s">
+        <v>12</v>
+      </c>
+      <c r="H338" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="339" spans="1:8">
-      <c r="A339" t="s">
+      <c r="B339" t="s">
         <v>479</v>
+      </c>
+      <c r="C339" t="n">
+        <v>4</v>
+      </c>
+      <c r="D339" t="s">
+        <v>115</v>
+      </c>
+      <c r="E339" t="s">
+        <v>12</v>
+      </c>
+      <c r="F339" t="s">
+        <v>12</v>
+      </c>
+      <c r="G339" t="s">
+        <v>12</v>
+      </c>
+      <c r="H339" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="340" spans="1:8">
       <c r="B340" t="s">
+        <v>475</v>
+      </c>
+      <c r="C340" t="n">
+        <v>3.471</v>
+      </c>
+      <c r="D340" t="s">
+        <v>89</v>
+      </c>
+      <c r="E340" t="s">
+        <v>476</v>
+      </c>
+      <c r="F340" t="s">
         <v>480</v>
       </c>
-      <c r="C340" t="n">
+      <c r="G340" t="s">
+        <v>12</v>
+      </c>
+      <c r="H340" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8">
+      <c r="B341" t="s">
+        <v>481</v>
+      </c>
+      <c r="C341" t="n">
+        <v>3.235</v>
+      </c>
+      <c r="D341" t="s">
+        <v>476</v>
+      </c>
+      <c r="E341" t="s">
+        <v>476</v>
+      </c>
+      <c r="F341" t="s">
+        <v>129</v>
+      </c>
+      <c r="G341" t="s">
+        <v>12</v>
+      </c>
+      <c r="H341" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8">
+      <c r="A343" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8">
+      <c r="B344" t="s">
+        <v>483</v>
+      </c>
+      <c r="C344" t="n">
         <v>3.758</v>
       </c>
-      <c r="D340" t="s">
+      <c r="D344" t="s">
         <v>93</v>
       </c>
-      <c r="E340" t="s">
+      <c r="E344" t="s">
         <v>238</v>
       </c>
-      <c r="F340" t="s">
-        <v>481</v>
-      </c>
-      <c r="G340" t="s">
-        <v>12</v>
-      </c>
-      <c r="H340" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="342" spans="1:8">
-      <c r="A342" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="343" spans="1:8">
-      <c r="B343" t="s">
-        <v>483</v>
-      </c>
-      <c r="C343" t="n">
-        <v>2.986</v>
-      </c>
-      <c r="D343" t="s">
+      <c r="F344" t="s">
         <v>484</v>
       </c>
-      <c r="E343" t="s">
+      <c r="G344" t="s">
+        <v>12</v>
+      </c>
+      <c r="H344" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8">
+      <c r="A346" t="s">
         <v>485</v>
-      </c>
-      <c r="F343" t="s">
-        <v>486</v>
-      </c>
-      <c r="G343" t="s">
-        <v>487</v>
-      </c>
-      <c r="H343" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="345" spans="1:8">
-      <c r="A345" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="346" spans="1:8">
-      <c r="B346" t="s">
-        <v>490</v>
-      </c>
-      <c r="C346" t="n">
-        <v>2.954</v>
-      </c>
-      <c r="D346" t="s">
-        <v>237</v>
-      </c>
-      <c r="E346" t="s">
-        <v>147</v>
-      </c>
-      <c r="F346" t="s">
-        <v>238</v>
-      </c>
-      <c r="G346" t="s">
-        <v>145</v>
-      </c>
-      <c r="H346" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="347" spans="1:8">
       <c r="B347" t="s">
-        <v>203</v>
+        <v>486</v>
       </c>
       <c r="C347" t="n">
-        <v>2.952</v>
+        <v>2.986</v>
       </c>
       <c r="D347" t="s">
-        <v>269</v>
+        <v>487</v>
       </c>
       <c r="E347" t="s">
+        <v>488</v>
+      </c>
+      <c r="F347" t="s">
+        <v>489</v>
+      </c>
+      <c r="G347" t="s">
+        <v>490</v>
+      </c>
+      <c r="H347" t="s">
         <v>491</v>
-      </c>
-      <c r="F347" t="s">
-        <v>18</v>
-      </c>
-      <c r="G347" t="s">
-        <v>291</v>
-      </c>
-      <c r="H347" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -6390,895 +6399,895 @@
         <v>493</v>
       </c>
       <c r="C350" t="n">
+        <v>2.954</v>
+      </c>
+      <c r="D350" t="s">
+        <v>237</v>
+      </c>
+      <c r="E350" t="s">
+        <v>147</v>
+      </c>
+      <c r="F350" t="s">
+        <v>238</v>
+      </c>
+      <c r="G350" t="s">
+        <v>145</v>
+      </c>
+      <c r="H350" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8">
+      <c r="B351" t="s">
+        <v>203</v>
+      </c>
+      <c r="C351" t="n">
+        <v>2.952</v>
+      </c>
+      <c r="D351" t="s">
+        <v>269</v>
+      </c>
+      <c r="E351" t="s">
+        <v>494</v>
+      </c>
+      <c r="F351" t="s">
+        <v>18</v>
+      </c>
+      <c r="G351" t="s">
+        <v>291</v>
+      </c>
+      <c r="H351" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8">
+      <c r="A353" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8">
+      <c r="B354" t="s">
+        <v>496</v>
+      </c>
+      <c r="C354" t="n">
         <v>3.382</v>
       </c>
-      <c r="D350" t="s">
-        <v>473</v>
-      </c>
-      <c r="E350" t="s">
+      <c r="D354" t="s">
+        <v>476</v>
+      </c>
+      <c r="E354" t="s">
         <v>196</v>
       </c>
-      <c r="F350" t="s">
-        <v>494</v>
-      </c>
-      <c r="G350" t="s">
-        <v>12</v>
-      </c>
-      <c r="H350" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="352" spans="1:8">
-      <c r="A352" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="353" spans="1:8">
-      <c r="B353" t="s">
-        <v>496</v>
-      </c>
-      <c r="C353" t="n">
+      <c r="F354" t="s">
+        <v>497</v>
+      </c>
+      <c r="G354" t="s">
+        <v>12</v>
+      </c>
+      <c r="H354" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8">
+      <c r="A356" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8">
+      <c r="B357" t="s">
+        <v>499</v>
+      </c>
+      <c r="C357" t="n">
         <v>3.032</v>
       </c>
-      <c r="D353" t="s">
+      <c r="D357" t="s">
         <v>22</v>
       </c>
-      <c r="E353" t="s">
-        <v>497</v>
-      </c>
-      <c r="F353" t="s">
+      <c r="E357" t="s">
+        <v>500</v>
+      </c>
+      <c r="F357" t="s">
         <v>30</v>
       </c>
-      <c r="G353" t="s">
+      <c r="G357" t="s">
         <v>36</v>
       </c>
-      <c r="H353" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="355" spans="1:8">
-      <c r="A355" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="356" spans="1:8">
-      <c r="B356" t="s">
-        <v>483</v>
-      </c>
-      <c r="C356" t="n">
+      <c r="H357" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8">
+      <c r="A359" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8">
+      <c r="B360" t="s">
+        <v>486</v>
+      </c>
+      <c r="C360" t="n">
         <v>3.5605</v>
       </c>
-      <c r="D356" t="s">
+      <c r="D360" t="s">
+        <v>502</v>
+      </c>
+      <c r="E360" t="s">
+        <v>503</v>
+      </c>
+      <c r="F360" t="s">
+        <v>12</v>
+      </c>
+      <c r="G360" t="s">
+        <v>12</v>
+      </c>
+      <c r="H360" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8">
+      <c r="A362" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8">
+      <c r="B363" t="s">
+        <v>505</v>
+      </c>
+      <c r="C363" t="n">
+        <v>2.872</v>
+      </c>
+      <c r="D363" t="s">
+        <v>506</v>
+      </c>
+      <c r="E363" t="s">
+        <v>54</v>
+      </c>
+      <c r="F363" t="s">
+        <v>22</v>
+      </c>
+      <c r="G363" t="s">
+        <v>36</v>
+      </c>
+      <c r="H363" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8">
+      <c r="A365" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8">
+      <c r="B366" t="s">
+        <v>508</v>
+      </c>
+      <c r="C366" t="n">
+        <v>3.333</v>
+      </c>
+      <c r="D366" t="s">
+        <v>20</v>
+      </c>
+      <c r="E366" t="s">
+        <v>109</v>
+      </c>
+      <c r="F366" t="s">
+        <v>12</v>
+      </c>
+      <c r="G366" t="s">
+        <v>12</v>
+      </c>
+      <c r="H366" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8">
+      <c r="A368" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8">
+      <c r="B369" t="s">
+        <v>510</v>
+      </c>
+      <c r="C369" t="n">
+        <v>3.688</v>
+      </c>
+      <c r="D369" t="s">
+        <v>96</v>
+      </c>
+      <c r="E369" t="s">
+        <v>97</v>
+      </c>
+      <c r="F369" t="s">
+        <v>12</v>
+      </c>
+      <c r="G369" t="s">
+        <v>12</v>
+      </c>
+      <c r="H369" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8">
+      <c r="A371" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8">
+      <c r="B372" t="s">
+        <v>493</v>
+      </c>
+      <c r="C372" t="n">
+        <v>4</v>
+      </c>
+      <c r="D372" t="s">
+        <v>115</v>
+      </c>
+      <c r="E372" t="s">
+        <v>12</v>
+      </c>
+      <c r="F372" t="s">
+        <v>12</v>
+      </c>
+      <c r="G372" t="s">
+        <v>12</v>
+      </c>
+      <c r="H372" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8">
+      <c r="A374" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8">
+      <c r="B375" t="s">
+        <v>486</v>
+      </c>
+      <c r="C375" t="n">
+        <v>3.571</v>
+      </c>
+      <c r="D375" t="s">
+        <v>104</v>
+      </c>
+      <c r="E375" t="s">
+        <v>18</v>
+      </c>
+      <c r="F375" t="s">
+        <v>18</v>
+      </c>
+      <c r="G375" t="s">
+        <v>12</v>
+      </c>
+      <c r="H375" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8">
+      <c r="A377" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8">
+      <c r="B378" t="s">
         <v>499</v>
       </c>
-      <c r="E356" t="s">
-        <v>500</v>
-      </c>
-      <c r="F356" t="s">
-        <v>12</v>
-      </c>
-      <c r="G356" t="s">
-        <v>12</v>
-      </c>
-      <c r="H356" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="358" spans="1:8">
-      <c r="A358" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="359" spans="1:8">
-      <c r="B359" t="s">
-        <v>502</v>
-      </c>
-      <c r="C359" t="n">
-        <v>2.872</v>
-      </c>
-      <c r="D359" t="s">
-        <v>503</v>
-      </c>
-      <c r="E359" t="s">
+      <c r="C378" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D378" t="s">
         <v>54</v>
       </c>
-      <c r="F359" t="s">
-        <v>22</v>
-      </c>
-      <c r="G359" t="s">
-        <v>36</v>
-      </c>
-      <c r="H359" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="361" spans="1:8">
-      <c r="A361" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="362" spans="1:8">
-      <c r="B362" t="s">
-        <v>505</v>
-      </c>
-      <c r="C362" t="n">
-        <v>3.333</v>
-      </c>
-      <c r="D362" t="s">
+      <c r="E378" t="s">
+        <v>53</v>
+      </c>
+      <c r="F378" t="s">
+        <v>12</v>
+      </c>
+      <c r="G378" t="s">
+        <v>12</v>
+      </c>
+      <c r="H378" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8">
+      <c r="A380" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8">
+      <c r="B381" t="s">
+        <v>203</v>
+      </c>
+      <c r="C381" t="n">
+        <v>3.733</v>
+      </c>
+      <c r="D381" t="s">
+        <v>157</v>
+      </c>
+      <c r="E381" t="s">
+        <v>158</v>
+      </c>
+      <c r="F381" t="s">
+        <v>12</v>
+      </c>
+      <c r="G381" t="s">
+        <v>12</v>
+      </c>
+      <c r="H381" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8">
+      <c r="A383" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8">
+      <c r="B384" t="s">
+        <v>516</v>
+      </c>
+      <c r="C384" t="n">
+        <v>3.769</v>
+      </c>
+      <c r="D384" t="s">
+        <v>294</v>
+      </c>
+      <c r="E384" t="s">
+        <v>295</v>
+      </c>
+      <c r="F384" t="s">
+        <v>12</v>
+      </c>
+      <c r="G384" t="s">
+        <v>12</v>
+      </c>
+      <c r="H384" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8">
+      <c r="A386" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8">
+      <c r="B387" t="s">
+        <v>518</v>
+      </c>
+      <c r="C387" t="n">
+        <v>3.509</v>
+      </c>
+      <c r="D387" t="s">
+        <v>282</v>
+      </c>
+      <c r="E387" t="s">
+        <v>519</v>
+      </c>
+      <c r="F387" t="s">
+        <v>520</v>
+      </c>
+      <c r="G387" t="s">
+        <v>12</v>
+      </c>
+      <c r="H387" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8">
+      <c r="A389" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8">
+      <c r="B390" t="s">
+        <v>522</v>
+      </c>
+      <c r="C390" t="n">
+        <v>4</v>
+      </c>
+      <c r="D390" t="s">
+        <v>115</v>
+      </c>
+      <c r="E390" t="s">
+        <v>12</v>
+      </c>
+      <c r="F390" t="s">
+        <v>12</v>
+      </c>
+      <c r="G390" t="s">
+        <v>12</v>
+      </c>
+      <c r="H390" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8">
+      <c r="A392" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8">
+      <c r="B393" t="s">
+        <v>516</v>
+      </c>
+      <c r="C393" t="n">
+        <v>3.538</v>
+      </c>
+      <c r="D393" t="s">
+        <v>524</v>
+      </c>
+      <c r="E393" t="s">
+        <v>525</v>
+      </c>
+      <c r="F393" t="s">
+        <v>12</v>
+      </c>
+      <c r="G393" t="s">
+        <v>12</v>
+      </c>
+      <c r="H393" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8">
+      <c r="A395" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8">
+      <c r="B396" t="s">
+        <v>522</v>
+      </c>
+      <c r="C396" t="n">
+        <v>4</v>
+      </c>
+      <c r="D396" t="s">
+        <v>115</v>
+      </c>
+      <c r="E396" t="s">
+        <v>12</v>
+      </c>
+      <c r="F396" t="s">
+        <v>12</v>
+      </c>
+      <c r="G396" t="s">
+        <v>12</v>
+      </c>
+      <c r="H396" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8">
+      <c r="A398" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8">
+      <c r="B399" t="s">
+        <v>516</v>
+      </c>
+      <c r="C399" t="n">
+        <v>3.667</v>
+      </c>
+      <c r="D399" t="s">
+        <v>109</v>
+      </c>
+      <c r="E399" t="s">
         <v>20</v>
       </c>
-      <c r="E362" t="s">
-        <v>109</v>
-      </c>
-      <c r="F362" t="s">
-        <v>12</v>
-      </c>
-      <c r="G362" t="s">
-        <v>12</v>
-      </c>
-      <c r="H362" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="364" spans="1:8">
-      <c r="A364" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="365" spans="1:8">
-      <c r="B365" t="s">
-        <v>507</v>
-      </c>
-      <c r="C365" t="n">
-        <v>3.688</v>
-      </c>
-      <c r="D365" t="s">
-        <v>96</v>
-      </c>
-      <c r="E365" t="s">
-        <v>97</v>
-      </c>
-      <c r="F365" t="s">
-        <v>12</v>
-      </c>
-      <c r="G365" t="s">
-        <v>12</v>
-      </c>
-      <c r="H365" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="367" spans="1:8">
-      <c r="A367" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="368" spans="1:8">
-      <c r="B368" t="s">
-        <v>490</v>
-      </c>
-      <c r="C368" t="n">
+      <c r="F399" t="s">
+        <v>12</v>
+      </c>
+      <c r="G399" t="s">
+        <v>12</v>
+      </c>
+      <c r="H399" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8">
+      <c r="A401" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8">
+      <c r="B402" t="s">
+        <v>529</v>
+      </c>
+      <c r="C402" t="n">
+        <v>3.621</v>
+      </c>
+      <c r="D402" t="s">
+        <v>530</v>
+      </c>
+      <c r="E402" t="s">
+        <v>531</v>
+      </c>
+      <c r="F402" t="s">
+        <v>532</v>
+      </c>
+      <c r="G402" t="s">
+        <v>12</v>
+      </c>
+      <c r="H402" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8">
+      <c r="A404" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8">
+      <c r="B405" t="s">
+        <v>534</v>
+      </c>
+      <c r="C405" t="n">
         <v>4</v>
       </c>
-      <c r="D368" t="s">
+      <c r="D405" t="s">
         <v>115</v>
       </c>
-      <c r="E368" t="s">
-        <v>12</v>
-      </c>
-      <c r="F368" t="s">
-        <v>12</v>
-      </c>
-      <c r="G368" t="s">
-        <v>12</v>
-      </c>
-      <c r="H368" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="370" spans="1:8">
-      <c r="A370" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="371" spans="1:8">
-      <c r="B371" t="s">
-        <v>483</v>
-      </c>
-      <c r="C371" t="n">
-        <v>3.571</v>
-      </c>
-      <c r="D371" t="s">
-        <v>104</v>
-      </c>
-      <c r="E371" t="s">
-        <v>18</v>
-      </c>
-      <c r="F371" t="s">
-        <v>18</v>
-      </c>
-      <c r="G371" t="s">
-        <v>12</v>
-      </c>
-      <c r="H371" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="373" spans="1:8">
-      <c r="A373" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="374" spans="1:8">
-      <c r="B374" t="s">
-        <v>496</v>
-      </c>
-      <c r="C374" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="D374" t="s">
+      <c r="E405" t="s">
+        <v>12</v>
+      </c>
+      <c r="F405" t="s">
+        <v>12</v>
+      </c>
+      <c r="G405" t="s">
+        <v>12</v>
+      </c>
+      <c r="H405" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8">
+      <c r="A407" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8">
+      <c r="B408" t="s">
+        <v>536</v>
+      </c>
+      <c r="C408" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="D408" t="s">
+        <v>128</v>
+      </c>
+      <c r="E408" t="s">
+        <v>129</v>
+      </c>
+      <c r="F408" t="s">
+        <v>12</v>
+      </c>
+      <c r="G408" t="s">
+        <v>12</v>
+      </c>
+      <c r="H408" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8">
+      <c r="A410" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8">
+      <c r="B411" t="s">
+        <v>538</v>
+      </c>
+      <c r="C411" t="n">
+        <v>4</v>
+      </c>
+      <c r="D411" t="s">
+        <v>115</v>
+      </c>
+      <c r="E411" t="s">
+        <v>12</v>
+      </c>
+      <c r="F411" t="s">
+        <v>12</v>
+      </c>
+      <c r="G411" t="s">
+        <v>12</v>
+      </c>
+      <c r="H411" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8">
+      <c r="A413" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8">
+      <c r="B414" t="s">
+        <v>540</v>
+      </c>
+      <c r="C414" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D414" t="s">
+        <v>53</v>
+      </c>
+      <c r="E414" t="s">
         <v>54</v>
       </c>
-      <c r="E374" t="s">
-        <v>53</v>
-      </c>
-      <c r="F374" t="s">
-        <v>12</v>
-      </c>
-      <c r="G374" t="s">
-        <v>12</v>
-      </c>
-      <c r="H374" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="376" spans="1:8">
-      <c r="A376" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="377" spans="1:8">
-      <c r="B377" t="s">
-        <v>203</v>
-      </c>
-      <c r="C377" t="n">
-        <v>3.733</v>
-      </c>
-      <c r="D377" t="s">
-        <v>157</v>
-      </c>
-      <c r="E377" t="s">
-        <v>158</v>
-      </c>
-      <c r="F377" t="s">
-        <v>12</v>
-      </c>
-      <c r="G377" t="s">
-        <v>12</v>
-      </c>
-      <c r="H377" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="379" spans="1:8">
-      <c r="A379" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="380" spans="1:8">
-      <c r="B380" t="s">
-        <v>513</v>
-      </c>
-      <c r="C380" t="n">
-        <v>3.769</v>
-      </c>
-      <c r="D380" t="s">
-        <v>294</v>
-      </c>
-      <c r="E380" t="s">
-        <v>295</v>
-      </c>
-      <c r="F380" t="s">
-        <v>12</v>
-      </c>
-      <c r="G380" t="s">
-        <v>12</v>
-      </c>
-      <c r="H380" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="382" spans="1:8">
-      <c r="A382" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="383" spans="1:8">
-      <c r="B383" t="s">
-        <v>515</v>
-      </c>
-      <c r="C383" t="n">
-        <v>3.509</v>
-      </c>
-      <c r="D383" t="s">
-        <v>282</v>
-      </c>
-      <c r="E383" t="s">
-        <v>516</v>
-      </c>
-      <c r="F383" t="s">
-        <v>517</v>
-      </c>
-      <c r="G383" t="s">
-        <v>12</v>
-      </c>
-      <c r="H383" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="385" spans="1:8">
-      <c r="A385" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="386" spans="1:8">
-      <c r="B386" t="s">
-        <v>519</v>
-      </c>
-      <c r="C386" t="n">
-        <v>4</v>
-      </c>
-      <c r="D386" t="s">
-        <v>115</v>
-      </c>
-      <c r="E386" t="s">
-        <v>12</v>
-      </c>
-      <c r="F386" t="s">
-        <v>12</v>
-      </c>
-      <c r="G386" t="s">
-        <v>12</v>
-      </c>
-      <c r="H386" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="388" spans="1:8">
-      <c r="A388" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="389" spans="1:8">
-      <c r="B389" t="s">
-        <v>513</v>
-      </c>
-      <c r="C389" t="n">
-        <v>3.538</v>
-      </c>
-      <c r="D389" t="s">
-        <v>521</v>
-      </c>
-      <c r="E389" t="s">
-        <v>522</v>
-      </c>
-      <c r="F389" t="s">
-        <v>12</v>
-      </c>
-      <c r="G389" t="s">
-        <v>12</v>
-      </c>
-      <c r="H389" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="391" spans="1:8">
-      <c r="A391" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="392" spans="1:8">
-      <c r="B392" t="s">
-        <v>519</v>
-      </c>
-      <c r="C392" t="n">
-        <v>4</v>
-      </c>
-      <c r="D392" t="s">
-        <v>115</v>
-      </c>
-      <c r="E392" t="s">
-        <v>12</v>
-      </c>
-      <c r="F392" t="s">
-        <v>12</v>
-      </c>
-      <c r="G392" t="s">
-        <v>12</v>
-      </c>
-      <c r="H392" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="394" spans="1:8">
-      <c r="A394" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="395" spans="1:8">
-      <c r="B395" t="s">
-        <v>513</v>
-      </c>
-      <c r="C395" t="n">
-        <v>3.667</v>
-      </c>
-      <c r="D395" t="s">
-        <v>109</v>
-      </c>
-      <c r="E395" t="s">
-        <v>20</v>
-      </c>
-      <c r="F395" t="s">
-        <v>12</v>
-      </c>
-      <c r="G395" t="s">
-        <v>12</v>
-      </c>
-      <c r="H395" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="397" spans="1:8">
-      <c r="A397" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="398" spans="1:8">
-      <c r="B398" t="s">
-        <v>526</v>
-      </c>
-      <c r="C398" t="n">
-        <v>3.621</v>
-      </c>
-      <c r="D398" t="s">
-        <v>527</v>
-      </c>
-      <c r="E398" t="s">
-        <v>528</v>
-      </c>
-      <c r="F398" t="s">
-        <v>529</v>
-      </c>
-      <c r="G398" t="s">
-        <v>12</v>
-      </c>
-      <c r="H398" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="400" spans="1:8">
-      <c r="A400" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="401" spans="1:8">
-      <c r="B401" t="s">
-        <v>531</v>
-      </c>
-      <c r="C401" t="n">
-        <v>4</v>
-      </c>
-      <c r="D401" t="s">
-        <v>115</v>
-      </c>
-      <c r="E401" t="s">
-        <v>12</v>
-      </c>
-      <c r="F401" t="s">
-        <v>12</v>
-      </c>
-      <c r="G401" t="s">
-        <v>12</v>
-      </c>
-      <c r="H401" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="403" spans="1:8">
-      <c r="A403" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="404" spans="1:8">
-      <c r="B404" t="s">
-        <v>533</v>
-      </c>
-      <c r="C404" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="D404" t="s">
-        <v>128</v>
-      </c>
-      <c r="E404" t="s">
-        <v>129</v>
-      </c>
-      <c r="F404" t="s">
-        <v>12</v>
-      </c>
-      <c r="G404" t="s">
-        <v>12</v>
-      </c>
-      <c r="H404" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="406" spans="1:8">
-      <c r="A406" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="407" spans="1:8">
-      <c r="B407" t="s">
-        <v>535</v>
-      </c>
-      <c r="C407" t="n">
-        <v>4</v>
-      </c>
-      <c r="D407" t="s">
-        <v>115</v>
-      </c>
-      <c r="E407" t="s">
-        <v>12</v>
-      </c>
-      <c r="F407" t="s">
-        <v>12</v>
-      </c>
-      <c r="G407" t="s">
-        <v>12</v>
-      </c>
-      <c r="H407" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="409" spans="1:8">
-      <c r="A409" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="410" spans="1:8">
-      <c r="B410" t="s">
-        <v>537</v>
-      </c>
-      <c r="C410" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="D410" t="s">
-        <v>53</v>
-      </c>
-      <c r="E410" t="s">
-        <v>54</v>
-      </c>
-      <c r="F410" t="s">
-        <v>12</v>
-      </c>
-      <c r="G410" t="s">
-        <v>12</v>
-      </c>
-      <c r="H410" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="412" spans="1:8">
-      <c r="A412" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="413" spans="1:8">
-      <c r="B413" t="s">
-        <v>539</v>
-      </c>
-      <c r="C413" t="n">
+      <c r="F414" t="s">
+        <v>12</v>
+      </c>
+      <c r="G414" t="s">
+        <v>12</v>
+      </c>
+      <c r="H414" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8">
+      <c r="A416" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8">
+      <c r="B417" t="s">
+        <v>542</v>
+      </c>
+      <c r="C417" t="n">
         <v>3.5</v>
       </c>
-      <c r="D413" t="s">
+      <c r="D417" t="s">
         <v>11</v>
       </c>
-      <c r="E413" t="s">
+      <c r="E417" t="s">
         <v>41</v>
       </c>
-      <c r="F413" t="s">
+      <c r="F417" t="s">
         <v>100</v>
       </c>
-      <c r="G413" t="s">
-        <v>12</v>
-      </c>
-      <c r="H413" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="415" spans="1:8">
-      <c r="A415" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="416" spans="1:8">
-      <c r="B416" t="s">
-        <v>541</v>
-      </c>
-      <c r="C416" t="n">
+      <c r="G417" t="s">
+        <v>12</v>
+      </c>
+      <c r="H417" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8">
+      <c r="A419" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8">
+      <c r="B420" t="s">
+        <v>544</v>
+      </c>
+      <c r="C420" t="n">
         <v>3.458</v>
       </c>
-      <c r="D416" t="s">
-        <v>542</v>
-      </c>
-      <c r="E416" t="s">
-        <v>543</v>
-      </c>
-      <c r="F416" t="s">
-        <v>12</v>
-      </c>
-      <c r="G416" t="s">
-        <v>12</v>
-      </c>
-      <c r="H416" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="418" spans="1:8">
-      <c r="A418" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="419" spans="1:8">
-      <c r="B419" t="s">
+      <c r="D420" t="s">
+        <v>545</v>
+      </c>
+      <c r="E420" t="s">
+        <v>546</v>
+      </c>
+      <c r="F420" t="s">
+        <v>12</v>
+      </c>
+      <c r="G420" t="s">
+        <v>12</v>
+      </c>
+      <c r="H420" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8">
+      <c r="A422" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8">
+      <c r="B423" t="s">
         <v>308</v>
       </c>
-      <c r="C419" t="n">
+      <c r="C423" t="n">
         <v>3.414</v>
       </c>
-      <c r="D419" t="s">
-        <v>545</v>
-      </c>
-      <c r="E419" t="s">
-        <v>546</v>
-      </c>
-      <c r="F419" t="s">
-        <v>12</v>
-      </c>
-      <c r="G419" t="s">
-        <v>12</v>
-      </c>
-      <c r="H419" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="421" spans="1:8">
-      <c r="A421" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="422" spans="1:8">
-      <c r="B422" t="s">
+      <c r="D423" t="s">
         <v>548</v>
       </c>
-      <c r="C422" t="n">
+      <c r="E423" t="s">
+        <v>549</v>
+      </c>
+      <c r="F423" t="s">
+        <v>12</v>
+      </c>
+      <c r="G423" t="s">
+        <v>12</v>
+      </c>
+      <c r="H423" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8">
+      <c r="A425" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8">
+      <c r="B426" t="s">
+        <v>551</v>
+      </c>
+      <c r="C426" t="n">
         <v>3.615</v>
       </c>
-      <c r="D422" t="s">
+      <c r="D426" t="s">
         <v>318</v>
       </c>
-      <c r="E422" t="s">
-        <v>396</v>
-      </c>
-      <c r="F422" t="s">
-        <v>12</v>
-      </c>
-      <c r="G422" t="s">
-        <v>12</v>
-      </c>
-      <c r="H422" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="424" spans="1:8">
-      <c r="A424" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="425" spans="1:8">
-      <c r="B425" t="s">
-        <v>550</v>
-      </c>
-      <c r="C425" t="n">
+      <c r="E426" t="s">
+        <v>399</v>
+      </c>
+      <c r="F426" t="s">
+        <v>12</v>
+      </c>
+      <c r="G426" t="s">
+        <v>12</v>
+      </c>
+      <c r="H426" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8">
+      <c r="A428" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8">
+      <c r="B429" t="s">
+        <v>553</v>
+      </c>
+      <c r="C429" t="n">
         <v>3.933</v>
       </c>
-      <c r="D425" t="s">
+      <c r="D429" t="s">
         <v>153</v>
       </c>
-      <c r="E425" t="s">
+      <c r="E429" t="s">
         <v>25</v>
       </c>
-      <c r="F425" t="s">
-        <v>12</v>
-      </c>
-      <c r="G425" t="s">
-        <v>12</v>
-      </c>
-      <c r="H425" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="427" spans="1:8">
-      <c r="A427" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="428" spans="1:8">
-      <c r="B428" t="s">
-        <v>308</v>
-      </c>
-      <c r="C428" t="n">
-        <v>4</v>
-      </c>
-      <c r="D428" t="s">
-        <v>115</v>
-      </c>
-      <c r="E428" t="s">
-        <v>12</v>
-      </c>
-      <c r="F428" t="s">
-        <v>12</v>
-      </c>
-      <c r="G428" t="s">
-        <v>12</v>
-      </c>
-      <c r="H428" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="430" spans="1:8">
-      <c r="A430" t="s">
-        <v>552</v>
+      <c r="F429" t="s">
+        <v>12</v>
+      </c>
+      <c r="G429" t="s">
+        <v>12</v>
+      </c>
+      <c r="H429" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="431" spans="1:8">
-      <c r="B431" t="s">
-        <v>553</v>
-      </c>
-      <c r="C431" t="n">
-        <v>3.706</v>
-      </c>
-      <c r="D431" t="s">
-        <v>454</v>
-      </c>
-      <c r="E431" t="s">
-        <v>129</v>
-      </c>
-      <c r="F431" t="s">
-        <v>477</v>
-      </c>
-      <c r="G431" t="s">
-        <v>12</v>
-      </c>
-      <c r="H431" t="s">
-        <v>12</v>
+      <c r="A431" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="432" spans="1:8">
       <c r="B432" t="s">
-        <v>554</v>
+        <v>308</v>
       </c>
       <c r="C432" t="n">
+        <v>4</v>
+      </c>
+      <c r="D432" t="s">
+        <v>115</v>
+      </c>
+      <c r="E432" t="s">
+        <v>12</v>
+      </c>
+      <c r="F432" t="s">
+        <v>12</v>
+      </c>
+      <c r="G432" t="s">
+        <v>12</v>
+      </c>
+      <c r="H432" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8">
+      <c r="A434" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8">
+      <c r="B435" t="s">
+        <v>556</v>
+      </c>
+      <c r="C435" t="n">
+        <v>3.706</v>
+      </c>
+      <c r="D435" t="s">
+        <v>457</v>
+      </c>
+      <c r="E435" t="s">
+        <v>129</v>
+      </c>
+      <c r="F435" t="s">
+        <v>480</v>
+      </c>
+      <c r="G435" t="s">
+        <v>12</v>
+      </c>
+      <c r="H435" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8">
+      <c r="B436" t="s">
+        <v>557</v>
+      </c>
+      <c r="C436" t="n">
         <v>3.632</v>
       </c>
-      <c r="D432" t="s">
-        <v>555</v>
-      </c>
-      <c r="E432" t="s">
+      <c r="D436" t="s">
+        <v>558</v>
+      </c>
+      <c r="E436" t="s">
         <v>283</v>
       </c>
-      <c r="F432" t="s">
-        <v>12</v>
-      </c>
-      <c r="G432" t="s">
-        <v>12</v>
-      </c>
-      <c r="H432" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="433" spans="1:8">
-      <c r="B433" t="s">
-        <v>531</v>
-      </c>
-      <c r="C433" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="D433" t="s">
-        <v>556</v>
-      </c>
-      <c r="E433" t="s">
-        <v>557</v>
-      </c>
-      <c r="F433" t="s">
-        <v>12</v>
-      </c>
-      <c r="G433" t="s">
-        <v>12</v>
-      </c>
-      <c r="H433" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="434" spans="1:8">
-      <c r="B434" t="s">
-        <v>558</v>
-      </c>
-      <c r="C434" t="n">
-        <v>3.731</v>
-      </c>
-      <c r="D434" t="s">
-        <v>559</v>
-      </c>
-      <c r="E434" t="s">
-        <v>560</v>
-      </c>
-      <c r="F434" t="s">
-        <v>12</v>
-      </c>
-      <c r="G434" t="s">
-        <v>12</v>
-      </c>
-      <c r="H434" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="436" spans="1:8">
-      <c r="A436" t="s">
-        <v>561</v>
+      <c r="F436" t="s">
+        <v>12</v>
+      </c>
+      <c r="G436" t="s">
+        <v>12</v>
+      </c>
+      <c r="H436" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="437" spans="1:8">
       <c r="B437" t="s">
-        <v>562</v>
+        <v>534</v>
       </c>
       <c r="C437" t="n">
-        <v>2.811</v>
+        <v>3.885</v>
       </c>
       <c r="D437" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="E437" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="F437" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="G437" t="s">
-        <v>565</v>
+        <v>12</v>
       </c>
       <c r="H437" t="s">
-        <v>284</v>
+        <v>12</v>
       </c>
     </row>
     <row r="438" spans="1:8">
       <c r="B438" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="C438" t="n">
-        <v>3.479</v>
+        <v>3.731</v>
       </c>
       <c r="D438" t="s">
-        <v>200</v>
+        <v>562</v>
       </c>
       <c r="E438" t="s">
-        <v>199</v>
+        <v>563</v>
       </c>
       <c r="F438" t="s">
-        <v>161</v>
+        <v>12</v>
       </c>
       <c r="G438" t="s">
-        <v>567</v>
+        <v>12</v>
       </c>
       <c r="H438" t="s">
         <v>12</v>
@@ -7286,588 +7295,588 @@
     </row>
     <row r="440" spans="1:8">
       <c r="A440" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="441" spans="1:8">
       <c r="B441" t="s">
-        <v>539</v>
+        <v>565</v>
       </c>
       <c r="C441" t="n">
-        <v>2.471</v>
+        <v>2.811</v>
       </c>
       <c r="D441" t="s">
-        <v>197</v>
+        <v>566</v>
       </c>
       <c r="E441" t="s">
+        <v>567</v>
+      </c>
+      <c r="F441" t="s">
+        <v>72</v>
+      </c>
+      <c r="G441" t="s">
+        <v>568</v>
+      </c>
+      <c r="H441" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8">
+      <c r="B442" t="s">
         <v>569</v>
       </c>
-      <c r="F441" t="s">
-        <v>569</v>
-      </c>
-      <c r="G441" t="s">
-        <v>477</v>
-      </c>
-      <c r="H441" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="443" spans="1:8">
-      <c r="A443" t="s">
+      <c r="C442" t="n">
+        <v>3.479</v>
+      </c>
+      <c r="D442" t="s">
+        <v>200</v>
+      </c>
+      <c r="E442" t="s">
+        <v>199</v>
+      </c>
+      <c r="F442" t="s">
+        <v>161</v>
+      </c>
+      <c r="G442" t="s">
         <v>570</v>
       </c>
+      <c r="H442" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="444" spans="1:8">
-      <c r="B444" t="s">
+      <c r="A444" t="s">
         <v>571</v>
-      </c>
-      <c r="C444" t="n">
-        <v>3.583</v>
-      </c>
-      <c r="D444" t="s">
-        <v>126</v>
-      </c>
-      <c r="E444" t="s">
-        <v>572</v>
-      </c>
-      <c r="F444" t="s">
-        <v>94</v>
-      </c>
-      <c r="G444" t="s">
-        <v>12</v>
-      </c>
-      <c r="H444" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="445" spans="1:8">
       <c r="B445" t="s">
-        <v>573</v>
+        <v>542</v>
       </c>
       <c r="C445" t="n">
-        <v>3.597</v>
+        <v>2.471</v>
       </c>
       <c r="D445" t="s">
-        <v>574</v>
+        <v>197</v>
       </c>
       <c r="E445" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="F445" t="s">
-        <v>201</v>
+        <v>572</v>
       </c>
       <c r="G445" t="s">
-        <v>201</v>
+        <v>480</v>
       </c>
       <c r="H445" t="s">
-        <v>12</v>
+        <v>405</v>
       </c>
     </row>
     <row r="447" spans="1:8">
       <c r="A447" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="448" spans="1:8">
       <c r="B448" t="s">
+        <v>574</v>
+      </c>
+      <c r="C448" t="n">
+        <v>3.583</v>
+      </c>
+      <c r="D448" t="s">
+        <v>126</v>
+      </c>
+      <c r="E448" t="s">
+        <v>575</v>
+      </c>
+      <c r="F448" t="s">
+        <v>94</v>
+      </c>
+      <c r="G448" t="s">
+        <v>12</v>
+      </c>
+      <c r="H448" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="449" spans="1:8">
+      <c r="B449" t="s">
+        <v>576</v>
+      </c>
+      <c r="C449" t="n">
+        <v>3.597</v>
+      </c>
+      <c r="D449" t="s">
         <v>577</v>
       </c>
-      <c r="C448" t="n">
+      <c r="E449" t="s">
+        <v>578</v>
+      </c>
+      <c r="F449" t="s">
+        <v>201</v>
+      </c>
+      <c r="G449" t="s">
+        <v>201</v>
+      </c>
+      <c r="H449" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="451" spans="1:8">
+      <c r="A451" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="452" spans="1:8">
+      <c r="B452" t="s">
+        <v>580</v>
+      </c>
+      <c r="C452" t="n">
         <v>4</v>
       </c>
-      <c r="D448" t="s">
+      <c r="D452" t="s">
         <v>115</v>
       </c>
-      <c r="E448" t="s">
-        <v>12</v>
-      </c>
-      <c r="F448" t="s">
-        <v>12</v>
-      </c>
-      <c r="G448" t="s">
-        <v>12</v>
-      </c>
-      <c r="H448" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="450" spans="1:8">
-      <c r="A450" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="451" spans="1:8">
-      <c r="B451" t="s">
-        <v>535</v>
-      </c>
-      <c r="C451" t="n">
+      <c r="E452" t="s">
+        <v>12</v>
+      </c>
+      <c r="F452" t="s">
+        <v>12</v>
+      </c>
+      <c r="G452" t="s">
+        <v>12</v>
+      </c>
+      <c r="H452" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="454" spans="1:8">
+      <c r="A454" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="455" spans="1:8">
+      <c r="B455" t="s">
+        <v>538</v>
+      </c>
+      <c r="C455" t="n">
         <v>3.105</v>
       </c>
-      <c r="D451" t="s">
-        <v>579</v>
-      </c>
-      <c r="E451" t="s">
+      <c r="D455" t="s">
+        <v>582</v>
+      </c>
+      <c r="E455" t="s">
         <v>71</v>
       </c>
-      <c r="F451" t="s">
+      <c r="F455" t="s">
         <v>283</v>
       </c>
-      <c r="G451" t="s">
-        <v>12</v>
-      </c>
-      <c r="H451" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="453" spans="1:8">
-      <c r="A453" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="454" spans="1:8">
-      <c r="B454" t="s">
-        <v>519</v>
-      </c>
-      <c r="C454" t="n">
-        <v>3.735</v>
-      </c>
-      <c r="D454" t="s">
-        <v>454</v>
-      </c>
-      <c r="E454" t="s">
-        <v>195</v>
-      </c>
-      <c r="F454" t="s">
-        <v>494</v>
-      </c>
-      <c r="G454" t="s">
-        <v>12</v>
-      </c>
-      <c r="H454" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="456" spans="1:8">
-      <c r="A456" t="s">
-        <v>581</v>
+      <c r="G455" t="s">
+        <v>12</v>
+      </c>
+      <c r="H455" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="457" spans="1:8">
-      <c r="B457" t="s">
-        <v>558</v>
-      </c>
-      <c r="C457" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="D457" t="s">
-        <v>582</v>
-      </c>
-      <c r="E457" t="s">
-        <v>41</v>
-      </c>
-      <c r="F457" t="s">
-        <v>436</v>
-      </c>
-      <c r="G457" t="s">
-        <v>260</v>
-      </c>
-      <c r="H457" t="s">
-        <v>12</v>
+      <c r="A457" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="458" spans="1:8">
       <c r="B458" t="s">
-        <v>583</v>
+        <v>522</v>
       </c>
       <c r="C458" t="n">
-        <v>3.5795</v>
+        <v>3.735</v>
       </c>
       <c r="D458" t="s">
-        <v>584</v>
+        <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>585</v>
+        <v>195</v>
       </c>
       <c r="F458" t="s">
-        <v>586</v>
+        <v>497</v>
       </c>
       <c r="G458" t="s">
-        <v>587</v>
+        <v>12</v>
       </c>
       <c r="H458" t="s">
-        <v>587</v>
+        <v>12</v>
       </c>
     </row>
     <row r="460" spans="1:8">
       <c r="A460" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="461" spans="1:8">
       <c r="B461" t="s">
-        <v>533</v>
+        <v>561</v>
       </c>
       <c r="C461" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="D461" t="s">
-        <v>126</v>
+        <v>585</v>
       </c>
       <c r="E461" t="s">
         <v>41</v>
       </c>
       <c r="F461" t="s">
-        <v>12</v>
+        <v>441</v>
       </c>
       <c r="G461" t="s">
-        <v>12</v>
+        <v>260</v>
       </c>
       <c r="H461" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="463" spans="1:8">
-      <c r="A463" t="s">
+    <row r="462" spans="1:8">
+      <c r="B462" t="s">
+        <v>586</v>
+      </c>
+      <c r="C462" t="n">
+        <v>3.5795</v>
+      </c>
+      <c r="D462" t="s">
+        <v>587</v>
+      </c>
+      <c r="E462" t="s">
+        <v>588</v>
+      </c>
+      <c r="F462" t="s">
         <v>589</v>
       </c>
+      <c r="G462" t="s">
+        <v>590</v>
+      </c>
+      <c r="H462" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="464" spans="1:8">
-      <c r="B464" t="s">
-        <v>590</v>
-      </c>
-      <c r="C464" t="n">
+      <c r="A464" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="465" spans="1:8">
+      <c r="B465" t="s">
+        <v>536</v>
+      </c>
+      <c r="C465" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="D465" t="s">
+        <v>126</v>
+      </c>
+      <c r="E465" t="s">
+        <v>41</v>
+      </c>
+      <c r="F465" t="s">
+        <v>12</v>
+      </c>
+      <c r="G465" t="s">
+        <v>12</v>
+      </c>
+      <c r="H465" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="467" spans="1:8">
+      <c r="A467" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="468" spans="1:8">
+      <c r="B468" t="s">
+        <v>593</v>
+      </c>
+      <c r="C468" t="n">
         <v>3.919</v>
       </c>
-      <c r="D464" t="s">
-        <v>591</v>
-      </c>
-      <c r="E464" t="s">
+      <c r="D468" t="s">
+        <v>594</v>
+      </c>
+      <c r="E468" t="s">
         <v>184</v>
       </c>
-      <c r="F464" t="s">
-        <v>592</v>
-      </c>
-      <c r="G464" t="s">
-        <v>592</v>
-      </c>
-      <c r="H464" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="466" spans="1:8">
-      <c r="A466" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="467" spans="1:8">
-      <c r="B467" t="s">
-        <v>594</v>
-      </c>
-      <c r="C467" t="n">
+      <c r="F468" t="s">
+        <v>595</v>
+      </c>
+      <c r="G468" t="s">
+        <v>595</v>
+      </c>
+      <c r="H468" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="470" spans="1:8">
+      <c r="A470" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="471" spans="1:8">
+      <c r="B471" t="s">
+        <v>597</v>
+      </c>
+      <c r="C471" t="n">
         <v>2.8835</v>
       </c>
-      <c r="D467" t="s">
-        <v>595</v>
-      </c>
-      <c r="E467" t="s">
+      <c r="D471" t="s">
+        <v>598</v>
+      </c>
+      <c r="E471" t="s">
         <v>41</v>
       </c>
-      <c r="F467" t="s">
-        <v>596</v>
-      </c>
-      <c r="G467" t="s">
-        <v>597</v>
-      </c>
-      <c r="H467" t="s">
+      <c r="F471" t="s">
+        <v>599</v>
+      </c>
+      <c r="G471" t="s">
+        <v>600</v>
+      </c>
+      <c r="H471" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="469" spans="1:8">
-      <c r="A469" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="470" spans="1:8">
-      <c r="B470" t="s">
-        <v>562</v>
-      </c>
-      <c r="C470" t="n">
+    <row r="473" spans="1:8">
+      <c r="A473" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="474" spans="1:8">
+      <c r="B474" t="s">
+        <v>565</v>
+      </c>
+      <c r="C474" t="n">
         <v>4</v>
       </c>
-      <c r="D470" t="s">
+      <c r="D474" t="s">
         <v>115</v>
       </c>
-      <c r="E470" t="s">
-        <v>12</v>
-      </c>
-      <c r="F470" t="s">
-        <v>12</v>
-      </c>
-      <c r="G470" t="s">
-        <v>12</v>
-      </c>
-      <c r="H470" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="472" spans="1:8">
-      <c r="A472" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="473" spans="1:8">
-      <c r="B473" t="s">
-        <v>526</v>
-      </c>
-      <c r="C473" t="n">
+      <c r="E474" t="s">
+        <v>12</v>
+      </c>
+      <c r="F474" t="s">
+        <v>12</v>
+      </c>
+      <c r="G474" t="s">
+        <v>12</v>
+      </c>
+      <c r="H474" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="476" spans="1:8">
+      <c r="A476" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="477" spans="1:8">
+      <c r="B477" t="s">
+        <v>529</v>
+      </c>
+      <c r="C477" t="n">
         <v>3.944</v>
       </c>
-      <c r="D473" t="s">
-        <v>600</v>
-      </c>
-      <c r="E473" t="s">
+      <c r="D477" t="s">
+        <v>603</v>
+      </c>
+      <c r="E477" t="s">
         <v>265</v>
       </c>
-      <c r="F473" t="s">
-        <v>12</v>
-      </c>
-      <c r="G473" t="s">
-        <v>12</v>
-      </c>
-      <c r="H473" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="475" spans="1:8">
-      <c r="A475" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="476" spans="1:8">
-      <c r="B476" t="s">
-        <v>594</v>
-      </c>
-      <c r="C476" t="n">
-        <v>4</v>
-      </c>
-      <c r="D476" t="s">
-        <v>115</v>
-      </c>
-      <c r="E476" t="s">
-        <v>12</v>
-      </c>
-      <c r="F476" t="s">
-        <v>12</v>
-      </c>
-      <c r="G476" t="s">
-        <v>12</v>
-      </c>
-      <c r="H476" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="478" spans="1:8">
-      <c r="A478" t="s">
-        <v>602</v>
+      <c r="F477" t="s">
+        <v>12</v>
+      </c>
+      <c r="G477" t="s">
+        <v>12</v>
+      </c>
+      <c r="H477" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="479" spans="1:8">
-      <c r="B479" t="s">
-        <v>603</v>
-      </c>
-      <c r="C479" t="n">
-        <v>3</v>
-      </c>
-      <c r="D479" t="s">
-        <v>110</v>
-      </c>
-      <c r="E479" t="s">
-        <v>134</v>
-      </c>
-      <c r="F479" t="s">
-        <v>110</v>
-      </c>
-      <c r="G479" t="s">
-        <v>12</v>
-      </c>
-      <c r="H479" t="s">
-        <v>12</v>
+      <c r="A479" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="480" spans="1:8">
       <c r="B480" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="C480" t="n">
+        <v>4</v>
+      </c>
+      <c r="D480" t="s">
+        <v>115</v>
+      </c>
+      <c r="E480" t="s">
+        <v>12</v>
+      </c>
+      <c r="F480" t="s">
+        <v>12</v>
+      </c>
+      <c r="G480" t="s">
+        <v>12</v>
+      </c>
+      <c r="H480" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="482" spans="1:8">
+      <c r="A482" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="483" spans="1:8">
+      <c r="B483" t="s">
+        <v>606</v>
+      </c>
+      <c r="C483" t="n">
+        <v>3</v>
+      </c>
+      <c r="D483" t="s">
+        <v>110</v>
+      </c>
+      <c r="E483" t="s">
+        <v>134</v>
+      </c>
+      <c r="F483" t="s">
+        <v>110</v>
+      </c>
+      <c r="G483" t="s">
+        <v>12</v>
+      </c>
+      <c r="H483" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="484" spans="1:8">
+      <c r="B484" t="s">
+        <v>607</v>
+      </c>
+      <c r="C484" t="n">
         <v>3.125</v>
       </c>
-      <c r="D480" t="s">
+      <c r="D484" t="s">
         <v>41</v>
       </c>
-      <c r="E480" t="s">
+      <c r="E484" t="s">
         <v>11</v>
       </c>
-      <c r="F480" t="s">
+      <c r="F484" t="s">
         <v>100</v>
       </c>
-      <c r="G480" t="s">
-        <v>12</v>
-      </c>
-      <c r="H480" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="481" spans="1:8">
-      <c r="B481" t="s">
-        <v>605</v>
-      </c>
-      <c r="C481" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="D481" t="s">
-        <v>606</v>
-      </c>
-      <c r="E481" t="s">
-        <v>282</v>
-      </c>
-      <c r="F481" t="s">
-        <v>72</v>
-      </c>
-      <c r="G481" t="s">
-        <v>12</v>
-      </c>
-      <c r="H481" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="482" spans="1:8">
-      <c r="B482" t="s">
-        <v>607</v>
-      </c>
-      <c r="C482" t="n">
-        <v>3.2945</v>
-      </c>
-      <c r="D482" t="s">
-        <v>146</v>
-      </c>
-      <c r="E482" t="s">
-        <v>608</v>
-      </c>
-      <c r="F482" t="s">
-        <v>609</v>
-      </c>
-      <c r="G482" t="s">
-        <v>12</v>
-      </c>
-      <c r="H482" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="484" spans="1:8">
-      <c r="A484" t="s">
-        <v>610</v>
+      <c r="G484" t="s">
+        <v>12</v>
+      </c>
+      <c r="H484" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="485" spans="1:8">
       <c r="B485" t="s">
+        <v>608</v>
+      </c>
+      <c r="C485" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="D485" t="s">
+        <v>609</v>
+      </c>
+      <c r="E485" t="s">
+        <v>282</v>
+      </c>
+      <c r="F485" t="s">
+        <v>72</v>
+      </c>
+      <c r="G485" t="s">
+        <v>12</v>
+      </c>
+      <c r="H485" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="486" spans="1:8">
+      <c r="B486" t="s">
+        <v>610</v>
+      </c>
+      <c r="C486" t="n">
+        <v>3.2945</v>
+      </c>
+      <c r="D486" t="s">
+        <v>146</v>
+      </c>
+      <c r="E486" t="s">
         <v>611</v>
       </c>
-      <c r="C485" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="D485" t="s">
-        <v>53</v>
-      </c>
-      <c r="E485" t="s">
+      <c r="F486" t="s">
         <v>612</v>
       </c>
-      <c r="F485" t="s">
-        <v>41</v>
-      </c>
-      <c r="G485" t="s">
-        <v>12</v>
-      </c>
-      <c r="H485" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="487" spans="1:8">
-      <c r="A487" t="s">
+      <c r="G486" t="s">
+        <v>12</v>
+      </c>
+      <c r="H486" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="488" spans="1:8">
+      <c r="A488" t="s">
         <v>613</v>
-      </c>
-    </row>
-    <row r="488" spans="1:8">
-      <c r="B488" t="s">
-        <v>614</v>
-      </c>
-      <c r="C488" t="n">
-        <v>3.444</v>
-      </c>
-      <c r="D488" t="s">
-        <v>76</v>
-      </c>
-      <c r="E488" t="s">
-        <v>133</v>
-      </c>
-      <c r="F488" t="s">
-        <v>265</v>
-      </c>
-      <c r="G488" t="s">
-        <v>12</v>
-      </c>
-      <c r="H488" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="489" spans="1:8">
       <c r="B489" t="s">
+        <v>614</v>
+      </c>
+      <c r="C489" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="D489" t="s">
+        <v>53</v>
+      </c>
+      <c r="E489" t="s">
         <v>615</v>
       </c>
-      <c r="C489" t="n">
-        <v>3.389</v>
-      </c>
-      <c r="D489" t="s">
+      <c r="F489" t="s">
+        <v>41</v>
+      </c>
+      <c r="G489" t="s">
+        <v>12</v>
+      </c>
+      <c r="H489" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="491" spans="1:8">
+      <c r="A491" t="s">
         <v>616</v>
       </c>
-      <c r="E489" t="s">
-        <v>264</v>
-      </c>
-      <c r="F489" t="s">
-        <v>12</v>
-      </c>
-      <c r="G489" t="s">
-        <v>12</v>
-      </c>
-      <c r="H489" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="490" spans="1:8">
-      <c r="B490" t="s">
-        <v>611</v>
-      </c>
-      <c r="C490" t="n">
-        <v>3</v>
-      </c>
-      <c r="D490" t="s">
-        <v>12</v>
-      </c>
-      <c r="E490" t="s">
-        <v>115</v>
-      </c>
-      <c r="F490" t="s">
-        <v>12</v>
-      </c>
-      <c r="G490" t="s">
-        <v>12</v>
-      </c>
-      <c r="H490" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="492" spans="1:8">
-      <c r="A492" t="s">
+      <c r="B492" t="s">
         <v>617</v>
+      </c>
+      <c r="C492" t="n">
+        <v>3.444</v>
+      </c>
+      <c r="D492" t="s">
+        <v>76</v>
+      </c>
+      <c r="E492" t="s">
+        <v>133</v>
+      </c>
+      <c r="F492" t="s">
+        <v>265</v>
+      </c>
+      <c r="G492" t="s">
+        <v>12</v>
+      </c>
+      <c r="H492" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -7875,16 +7884,16 @@
         <v>618</v>
       </c>
       <c r="C493" t="n">
-        <v>3.25</v>
+        <v>3.389</v>
       </c>
       <c r="D493" t="s">
-        <v>288</v>
+        <v>619</v>
       </c>
       <c r="E493" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="F493" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="G493" t="s">
         <v>12</v>
@@ -7895,19 +7904,19 @@
     </row>
     <row r="494" spans="1:8">
       <c r="B494" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="C494" t="n">
-        <v>2.917</v>
+        <v>3</v>
       </c>
       <c r="D494" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E494" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="F494" t="s">
-        <v>288</v>
+        <v>12</v>
       </c>
       <c r="G494" t="s">
         <v>12</v>
@@ -7926,175 +7935,175 @@
         <v>621</v>
       </c>
       <c r="C497" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="D497" t="s">
+        <v>288</v>
+      </c>
+      <c r="E497" t="s">
+        <v>288</v>
+      </c>
+      <c r="F497" t="s">
+        <v>94</v>
+      </c>
+      <c r="G497" t="s">
+        <v>12</v>
+      </c>
+      <c r="H497" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8">
+      <c r="B498" t="s">
+        <v>622</v>
+      </c>
+      <c r="C498" t="n">
+        <v>2.917</v>
+      </c>
+      <c r="D498" t="s">
+        <v>20</v>
+      </c>
+      <c r="E498" t="s">
+        <v>41</v>
+      </c>
+      <c r="F498" t="s">
+        <v>288</v>
+      </c>
+      <c r="G498" t="s">
+        <v>12</v>
+      </c>
+      <c r="H498" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8">
+      <c r="A500" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="501" spans="1:8">
+      <c r="B501" t="s">
+        <v>624</v>
+      </c>
+      <c r="C501" t="n">
         <v>3.1215</v>
       </c>
-      <c r="D497" t="s">
-        <v>622</v>
-      </c>
-      <c r="E497" t="s">
-        <v>623</v>
-      </c>
-      <c r="F497" t="s">
-        <v>624</v>
-      </c>
-      <c r="G497" t="s">
-        <v>12</v>
-      </c>
-      <c r="H497" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="499" spans="1:8">
-      <c r="A499" t="s">
+      <c r="D501" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="500" spans="1:8">
-      <c r="B500" t="s">
-        <v>611</v>
-      </c>
-      <c r="C500" t="n">
-        <v>2.615</v>
-      </c>
-      <c r="D500" t="s">
-        <v>295</v>
-      </c>
-      <c r="E500" t="s">
-        <v>57</v>
-      </c>
-      <c r="F500" t="s">
-        <v>318</v>
-      </c>
-      <c r="G500" t="s">
-        <v>12</v>
-      </c>
-      <c r="H500" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="502" spans="1:8">
-      <c r="A502" t="s">
+      <c r="E501" t="s">
         <v>626</v>
       </c>
+      <c r="F501" t="s">
+        <v>627</v>
+      </c>
+      <c r="G501" t="s">
+        <v>12</v>
+      </c>
+      <c r="H501" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="503" spans="1:8">
-      <c r="B503" t="s">
-        <v>174</v>
-      </c>
-      <c r="C503" t="n">
-        <v>3.647</v>
-      </c>
-      <c r="D503" t="s">
-        <v>627</v>
-      </c>
-      <c r="E503" t="s">
-        <v>474</v>
-      </c>
-      <c r="F503" t="s">
-        <v>12</v>
-      </c>
-      <c r="G503" t="s">
-        <v>12</v>
-      </c>
-      <c r="H503" t="s">
-        <v>12</v>
+      <c r="A503" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="504" spans="1:8">
       <c r="B504" t="s">
+        <v>614</v>
+      </c>
+      <c r="C504" t="n">
+        <v>2.615</v>
+      </c>
+      <c r="D504" t="s">
+        <v>295</v>
+      </c>
+      <c r="E504" t="s">
+        <v>57</v>
+      </c>
+      <c r="F504" t="s">
+        <v>318</v>
+      </c>
+      <c r="G504" t="s">
+        <v>12</v>
+      </c>
+      <c r="H504" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="506" spans="1:8">
+      <c r="A506" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="507" spans="1:8">
+      <c r="B507" t="s">
+        <v>174</v>
+      </c>
+      <c r="C507" t="n">
+        <v>3.647</v>
+      </c>
+      <c r="D507" t="s">
+        <v>630</v>
+      </c>
+      <c r="E507" t="s">
+        <v>477</v>
+      </c>
+      <c r="F507" t="s">
+        <v>12</v>
+      </c>
+      <c r="G507" t="s">
+        <v>12</v>
+      </c>
+      <c r="H507" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="508" spans="1:8">
+      <c r="B508" t="s">
         <v>311</v>
       </c>
-      <c r="C504" t="n">
+      <c r="C508" t="n">
         <v>3.762</v>
       </c>
-      <c r="D504" t="s">
-        <v>628</v>
-      </c>
-      <c r="E504" t="s">
-        <v>629</v>
-      </c>
-      <c r="F504" t="s">
-        <v>12</v>
-      </c>
-      <c r="G504" t="s">
-        <v>630</v>
-      </c>
-      <c r="H504" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="505" spans="1:8">
-      <c r="B505" t="s">
+      <c r="D508" t="s">
         <v>631</v>
       </c>
-      <c r="C505" t="n">
-        <v>3.318</v>
-      </c>
-      <c r="D505" t="s">
+      <c r="E508" t="s">
         <v>632</v>
       </c>
-      <c r="E505" t="s">
-        <v>76</v>
-      </c>
-      <c r="F505" t="s">
-        <v>12</v>
-      </c>
-      <c r="G505" t="s">
-        <v>12</v>
-      </c>
-      <c r="H505" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="506" spans="1:8">
-      <c r="B506" t="s">
+      <c r="F508" t="s">
+        <v>12</v>
+      </c>
+      <c r="G508" t="s">
         <v>633</v>
       </c>
-      <c r="C506" t="n">
-        <v>3.731</v>
-      </c>
-      <c r="D506" t="s">
-        <v>56</v>
-      </c>
-      <c r="E506" t="s">
-        <v>319</v>
-      </c>
-      <c r="F506" t="s">
-        <v>557</v>
-      </c>
-      <c r="G506" t="s">
-        <v>12</v>
-      </c>
-      <c r="H506" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="508" spans="1:8">
-      <c r="A508" t="s">
-        <v>634</v>
+      <c r="H508" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="509" spans="1:8">
       <c r="B509" t="s">
+        <v>634</v>
+      </c>
+      <c r="C509" t="n">
+        <v>3.318</v>
+      </c>
+      <c r="D509" t="s">
         <v>635</v>
       </c>
-      <c r="C509" t="n">
-        <v>3.143</v>
-      </c>
-      <c r="D509" t="s">
-        <v>20</v>
-      </c>
       <c r="E509" t="s">
-        <v>290</v>
+        <v>76</v>
       </c>
       <c r="F509" t="s">
-        <v>269</v>
+        <v>12</v>
       </c>
       <c r="G509" t="s">
         <v>12</v>
       </c>
       <c r="H509" t="s">
-        <v>12</v>
+        <v>145</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -8102,16 +8111,16 @@
         <v>636</v>
       </c>
       <c r="C510" t="n">
-        <v>3.769</v>
+        <v>3.731</v>
       </c>
       <c r="D510" t="s">
-        <v>294</v>
+        <v>56</v>
       </c>
       <c r="E510" t="s">
-        <v>295</v>
+        <v>319</v>
       </c>
       <c r="F510" t="s">
-        <v>12</v>
+        <v>560</v>
       </c>
       <c r="G510" t="s">
         <v>12</v>
@@ -8130,95 +8139,95 @@
         <v>638</v>
       </c>
       <c r="C513" t="n">
+        <v>3.143</v>
+      </c>
+      <c r="D513" t="s">
+        <v>20</v>
+      </c>
+      <c r="E513" t="s">
+        <v>290</v>
+      </c>
+      <c r="F513" t="s">
+        <v>269</v>
+      </c>
+      <c r="G513" t="s">
+        <v>12</v>
+      </c>
+      <c r="H513" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="514" spans="1:8">
+      <c r="B514" t="s">
+        <v>639</v>
+      </c>
+      <c r="C514" t="n">
+        <v>3.769</v>
+      </c>
+      <c r="D514" t="s">
+        <v>294</v>
+      </c>
+      <c r="E514" t="s">
+        <v>295</v>
+      </c>
+      <c r="F514" t="s">
+        <v>12</v>
+      </c>
+      <c r="G514" t="s">
+        <v>12</v>
+      </c>
+      <c r="H514" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="516" spans="1:8">
+      <c r="A516" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="517" spans="1:8">
+      <c r="B517" t="s">
+        <v>641</v>
+      </c>
+      <c r="C517" t="n">
         <v>2.75</v>
       </c>
-      <c r="D513" t="s">
+      <c r="D517" t="s">
         <v>288</v>
       </c>
-      <c r="E513" t="s">
+      <c r="E517" t="s">
         <v>41</v>
       </c>
-      <c r="F513" t="s">
+      <c r="F517" t="s">
         <v>94</v>
       </c>
-      <c r="G513" t="s">
-        <v>12</v>
-      </c>
-      <c r="H513" t="s">
+      <c r="G517" t="s">
+        <v>12</v>
+      </c>
+      <c r="H517" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="515" spans="1:8">
-      <c r="A515" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="516" spans="1:8">
-      <c r="B516" t="s">
-        <v>640</v>
-      </c>
-      <c r="C516" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="D516" t="s">
-        <v>75</v>
-      </c>
-      <c r="E516" t="s">
-        <v>641</v>
-      </c>
-      <c r="F516" t="s">
-        <v>94</v>
-      </c>
-      <c r="G516" t="s">
-        <v>12</v>
-      </c>
-      <c r="H516" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="518" spans="1:8">
-      <c r="A518" t="s">
+    <row r="519" spans="1:8">
+      <c r="A519" t="s">
         <v>642</v>
-      </c>
-    </row>
-    <row r="519" spans="1:8">
-      <c r="B519" t="s">
-        <v>615</v>
-      </c>
-      <c r="C519" t="n">
-        <v>3.467</v>
-      </c>
-      <c r="D519" t="s">
-        <v>21</v>
-      </c>
-      <c r="E519" t="s">
-        <v>248</v>
-      </c>
-      <c r="F519" t="s">
-        <v>12</v>
-      </c>
-      <c r="G519" t="s">
-        <v>12</v>
-      </c>
-      <c r="H519" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="520" spans="1:8">
       <c r="B520" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="C520" t="n">
-        <v>3.286</v>
+        <v>3.119</v>
       </c>
       <c r="D520" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="E520" t="s">
-        <v>491</v>
+        <v>644</v>
       </c>
       <c r="F520" t="s">
-        <v>291</v>
+        <v>94</v>
       </c>
       <c r="G520" t="s">
         <v>12</v>
@@ -8227,116 +8236,116 @@
         <v>12</v>
       </c>
     </row>
-    <row r="521" spans="1:8">
-      <c r="B521" t="s">
-        <v>636</v>
-      </c>
-      <c r="C521" t="n">
-        <v>4</v>
-      </c>
-      <c r="D521" t="s">
-        <v>115</v>
-      </c>
-      <c r="E521" t="s">
-        <v>12</v>
-      </c>
-      <c r="F521" t="s">
-        <v>12</v>
-      </c>
-      <c r="G521" t="s">
-        <v>12</v>
-      </c>
-      <c r="H521" t="s">
-        <v>12</v>
+    <row r="522" spans="1:8">
+      <c r="A522" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="523" spans="1:8">
-      <c r="A523" t="s">
-        <v>643</v>
+      <c r="B523" t="s">
+        <v>618</v>
+      </c>
+      <c r="C523" t="n">
+        <v>3.467</v>
+      </c>
+      <c r="D523" t="s">
+        <v>21</v>
+      </c>
+      <c r="E523" t="s">
+        <v>248</v>
+      </c>
+      <c r="F523" t="s">
+        <v>12</v>
+      </c>
+      <c r="G523" t="s">
+        <v>12</v>
+      </c>
+      <c r="H523" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="524" spans="1:8">
       <c r="B524" t="s">
+        <v>638</v>
+      </c>
+      <c r="C524" t="n">
+        <v>3.286</v>
+      </c>
+      <c r="D524" t="s">
+        <v>20</v>
+      </c>
+      <c r="E524" t="s">
+        <v>494</v>
+      </c>
+      <c r="F524" t="s">
+        <v>291</v>
+      </c>
+      <c r="G524" t="s">
+        <v>12</v>
+      </c>
+      <c r="H524" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="525" spans="1:8">
+      <c r="B525" t="s">
+        <v>639</v>
+      </c>
+      <c r="C525" t="n">
+        <v>4</v>
+      </c>
+      <c r="D525" t="s">
+        <v>115</v>
+      </c>
+      <c r="E525" t="s">
+        <v>12</v>
+      </c>
+      <c r="F525" t="s">
+        <v>12</v>
+      </c>
+      <c r="G525" t="s">
+        <v>12</v>
+      </c>
+      <c r="H525" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="527" spans="1:8">
+      <c r="A527" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8">
+      <c r="B528" t="s">
         <v>235</v>
       </c>
-      <c r="C524" t="n">
+      <c r="C528" t="n">
         <v>3.857</v>
       </c>
-      <c r="D524" t="s">
-        <v>644</v>
-      </c>
-      <c r="E524" t="s">
+      <c r="D528" t="s">
+        <v>647</v>
+      </c>
+      <c r="E528" t="s">
         <v>18</v>
       </c>
-      <c r="F524" t="s">
-        <v>12</v>
-      </c>
-      <c r="G524" t="s">
-        <v>12</v>
-      </c>
-      <c r="H524" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="526" spans="1:8">
-      <c r="A526" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="527" spans="1:8">
-      <c r="B527" t="s">
-        <v>635</v>
-      </c>
-      <c r="C527" t="n">
-        <v>4</v>
-      </c>
-      <c r="D527" t="s">
-        <v>115</v>
-      </c>
-      <c r="E527" t="s">
-        <v>12</v>
-      </c>
-      <c r="F527" t="s">
-        <v>12</v>
-      </c>
-      <c r="G527" t="s">
-        <v>12</v>
-      </c>
-      <c r="H527" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="529" spans="1:8">
-      <c r="A529" t="s">
-        <v>646</v>
+      <c r="F528" t="s">
+        <v>12</v>
+      </c>
+      <c r="G528" t="s">
+        <v>12</v>
+      </c>
+      <c r="H528" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="530" spans="1:8">
-      <c r="B530" t="s">
-        <v>647</v>
-      </c>
-      <c r="C530" t="n">
-        <v>3</v>
-      </c>
-      <c r="D530" t="s">
-        <v>295</v>
-      </c>
-      <c r="E530" t="s">
-        <v>521</v>
-      </c>
-      <c r="F530" t="s">
-        <v>295</v>
-      </c>
-      <c r="G530" t="s">
-        <v>12</v>
-      </c>
-      <c r="H530" t="s">
-        <v>12</v>
+      <c r="A530" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="531" spans="1:8">
       <c r="B531" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="C531" t="n">
         <v>4</v>
@@ -8364,276 +8373,327 @@
     </row>
     <row r="534" spans="1:8">
       <c r="B534" t="s">
-        <v>640</v>
+        <v>650</v>
       </c>
       <c r="C534" t="n">
+        <v>3</v>
+      </c>
+      <c r="D534" t="s">
+        <v>295</v>
+      </c>
+      <c r="E534" t="s">
+        <v>524</v>
+      </c>
+      <c r="F534" t="s">
+        <v>295</v>
+      </c>
+      <c r="G534" t="s">
+        <v>12</v>
+      </c>
+      <c r="H534" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="535" spans="1:8">
+      <c r="B535" t="s">
+        <v>651</v>
+      </c>
+      <c r="C535" t="n">
+        <v>4</v>
+      </c>
+      <c r="D535" t="s">
+        <v>115</v>
+      </c>
+      <c r="E535" t="s">
+        <v>12</v>
+      </c>
+      <c r="F535" t="s">
+        <v>12</v>
+      </c>
+      <c r="G535" t="s">
+        <v>12</v>
+      </c>
+      <c r="H535" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="537" spans="1:8">
+      <c r="A537" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="538" spans="1:8">
+      <c r="B538" t="s">
+        <v>643</v>
+      </c>
+      <c r="C538" t="n">
         <v>3.333</v>
       </c>
-      <c r="D534" t="s">
+      <c r="D538" t="s">
         <v>20</v>
       </c>
-      <c r="E534" t="s">
+      <c r="E538" t="s">
         <v>109</v>
       </c>
-      <c r="F534" t="s">
-        <v>12</v>
-      </c>
-      <c r="G534" t="s">
-        <v>12</v>
-      </c>
-      <c r="H534" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="536" spans="1:8">
-      <c r="A536" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="537" spans="1:8">
-      <c r="B537" t="s">
-        <v>651</v>
-      </c>
-      <c r="C537" t="n">
+      <c r="F538" t="s">
+        <v>12</v>
+      </c>
+      <c r="G538" t="s">
+        <v>12</v>
+      </c>
+      <c r="H538" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="540" spans="1:8">
+      <c r="A540" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="541" spans="1:8">
+      <c r="B541" t="s">
+        <v>654</v>
+      </c>
+      <c r="C541" t="n">
         <v>4</v>
       </c>
-      <c r="D537" t="s">
+      <c r="D541" t="s">
         <v>115</v>
       </c>
-      <c r="E537" t="s">
-        <v>12</v>
-      </c>
-      <c r="F537" t="s">
-        <v>12</v>
-      </c>
-      <c r="G537" t="s">
-        <v>12</v>
-      </c>
-      <c r="H537" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="539" spans="1:8">
-      <c r="A539" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="540" spans="1:8">
-      <c r="B540" t="s">
-        <v>653</v>
-      </c>
-      <c r="C540" t="n">
+      <c r="E541" t="s">
+        <v>12</v>
+      </c>
+      <c r="F541" t="s">
+        <v>12</v>
+      </c>
+      <c r="G541" t="s">
+        <v>12</v>
+      </c>
+      <c r="H541" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="543" spans="1:8">
+      <c r="A543" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="544" spans="1:8">
+      <c r="B544" t="s">
+        <v>656</v>
+      </c>
+      <c r="C544" t="n">
         <v>3.263</v>
       </c>
-      <c r="D540" t="s">
+      <c r="D544" t="s">
         <v>282</v>
       </c>
-      <c r="E540" t="s">
+      <c r="E544" t="s">
         <v>71</v>
       </c>
-      <c r="F540" t="s">
+      <c r="F544" t="s">
         <v>68</v>
       </c>
-      <c r="G540" t="s">
+      <c r="G544" t="s">
         <v>284</v>
       </c>
-      <c r="H540" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="542" spans="1:8">
-      <c r="A542" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="543" spans="1:8">
-      <c r="B543" t="s">
+      <c r="H544" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="546" spans="1:8">
+      <c r="A546" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="547" spans="1:8">
+      <c r="B547" t="s">
         <v>259</v>
       </c>
-      <c r="C543" t="n">
+      <c r="C547" t="n">
         <v>3.826</v>
       </c>
-      <c r="D543" t="s">
-        <v>655</v>
-      </c>
-      <c r="E543" t="s">
+      <c r="D547" t="s">
+        <v>658</v>
+      </c>
+      <c r="E547" t="s">
         <v>271</v>
       </c>
-      <c r="F543" t="s">
-        <v>12</v>
-      </c>
-      <c r="G543" t="s">
-        <v>12</v>
-      </c>
-      <c r="H543" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="545" spans="1:8">
-      <c r="A545" t="s">
+      <c r="F547" t="s">
+        <v>12</v>
+      </c>
+      <c r="G547" t="s">
+        <v>12</v>
+      </c>
+      <c r="H547" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="549" spans="1:8">
+      <c r="A549" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="550" spans="1:8">
+      <c r="B550" t="s">
+        <v>639</v>
+      </c>
+      <c r="C550" t="n">
+        <v>4</v>
+      </c>
+      <c r="D550" t="s">
+        <v>115</v>
+      </c>
+      <c r="E550" t="s">
+        <v>12</v>
+      </c>
+      <c r="F550" t="s">
+        <v>12</v>
+      </c>
+      <c r="G550" t="s">
+        <v>12</v>
+      </c>
+      <c r="H550" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="552" spans="1:8">
+      <c r="A552" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="553" spans="1:8">
+      <c r="B553" t="s">
+        <v>661</v>
+      </c>
+      <c r="C553" t="n">
+        <v>3.444</v>
+      </c>
+      <c r="D553" t="s">
+        <v>134</v>
+      </c>
+      <c r="E553" t="s">
+        <v>20</v>
+      </c>
+      <c r="F553" t="s">
+        <v>111</v>
+      </c>
+      <c r="G553" t="s">
+        <v>12</v>
+      </c>
+      <c r="H553" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="555" spans="1:8">
+      <c r="A555" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="556" spans="1:8">
+      <c r="B556" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="546" spans="1:8">
-      <c r="B546" t="s">
-        <v>636</v>
-      </c>
-      <c r="C546" t="n">
-        <v>4</v>
-      </c>
-      <c r="D546" t="s">
-        <v>115</v>
-      </c>
-      <c r="E546" t="s">
-        <v>12</v>
-      </c>
-      <c r="F546" t="s">
-        <v>12</v>
-      </c>
-      <c r="G546" t="s">
-        <v>12</v>
-      </c>
-      <c r="H546" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="548" spans="1:8">
-      <c r="A548" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="549" spans="1:8">
-      <c r="B549" t="s">
-        <v>658</v>
-      </c>
-      <c r="C549" t="n">
-        <v>3.444</v>
-      </c>
-      <c r="D549" t="s">
-        <v>134</v>
-      </c>
-      <c r="E549" t="s">
+      <c r="C556" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="D556" t="s">
+        <v>298</v>
+      </c>
+      <c r="E556" t="s">
+        <v>506</v>
+      </c>
+      <c r="F556" t="s">
+        <v>36</v>
+      </c>
+      <c r="G556" t="s">
+        <v>12</v>
+      </c>
+      <c r="H556" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="558" spans="1:8">
+      <c r="A558" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="559" spans="1:8">
+      <c r="B559" t="s">
+        <v>664</v>
+      </c>
+      <c r="C559" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="D559" t="s">
         <v>20</v>
       </c>
-      <c r="F549" t="s">
-        <v>111</v>
-      </c>
-      <c r="G549" t="s">
-        <v>12</v>
-      </c>
-      <c r="H549" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="551" spans="1:8">
-      <c r="A551" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="552" spans="1:8">
-      <c r="B552" t="s">
-        <v>653</v>
-      </c>
-      <c r="C552" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="D552" t="s">
-        <v>298</v>
-      </c>
-      <c r="E552" t="s">
-        <v>503</v>
-      </c>
-      <c r="F552" t="s">
-        <v>36</v>
-      </c>
-      <c r="G552" t="s">
-        <v>12</v>
-      </c>
-      <c r="H552" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="554" spans="1:8">
-      <c r="A554" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="555" spans="1:8">
-      <c r="B555" t="s">
-        <v>661</v>
-      </c>
-      <c r="C555" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="D555" t="s">
-        <v>20</v>
-      </c>
-      <c r="E555" t="s">
+      <c r="E559" t="s">
         <v>141</v>
       </c>
-      <c r="F555" t="s">
-        <v>572</v>
-      </c>
-      <c r="G555" t="s">
-        <v>12</v>
-      </c>
-      <c r="H555" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="557" spans="1:8">
-      <c r="A557" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="558" spans="1:8">
-      <c r="B558" t="s">
-        <v>603</v>
-      </c>
-      <c r="C558" t="n">
+      <c r="F559" t="s">
+        <v>575</v>
+      </c>
+      <c r="G559" t="s">
+        <v>12</v>
+      </c>
+      <c r="H559" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="561" spans="1:8">
+      <c r="A561" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="562" spans="1:8">
+      <c r="B562" t="s">
+        <v>606</v>
+      </c>
+      <c r="C562" t="n">
         <v>3.778</v>
       </c>
-      <c r="D558" t="s">
+      <c r="D562" t="s">
         <v>163</v>
       </c>
-      <c r="E558" t="s">
+      <c r="E562" t="s">
         <v>110</v>
       </c>
-      <c r="F558" t="s">
-        <v>12</v>
-      </c>
-      <c r="G558" t="s">
-        <v>12</v>
-      </c>
-      <c r="H558" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="560" spans="1:8">
-      <c r="A560" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="561" spans="1:8">
-      <c r="B561" t="s">
-        <v>640</v>
-      </c>
-      <c r="C561" t="n">
+      <c r="F562" t="s">
+        <v>12</v>
+      </c>
+      <c r="G562" t="s">
+        <v>12</v>
+      </c>
+      <c r="H562" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="564" spans="1:8">
+      <c r="A564" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="565" spans="1:8">
+      <c r="B565" t="s">
+        <v>643</v>
+      </c>
+      <c r="C565" t="n">
         <v>3.571</v>
       </c>
-      <c r="D561" t="s">
+      <c r="D565" t="s">
         <v>246</v>
       </c>
-      <c r="E561" t="s">
+      <c r="E565" t="s">
         <v>149</v>
       </c>
-      <c r="F561" t="s">
-        <v>12</v>
-      </c>
-      <c r="G561" t="s">
-        <v>12</v>
-      </c>
-      <c r="H561" t="s">
+      <c r="F565" t="s">
+        <v>12</v>
+      </c>
+      <c r="G565" t="s">
+        <v>12</v>
+      </c>
+      <c r="H565" t="s">
         <v>12</v>
       </c>
     </row>
